--- a/doc/excel/学院、专业、班级添加老师.xlsx
+++ b/doc/excel/学院、专业、班级添加老师.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60125F2F-6C32-401D-B68B-00947B41DA6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6530B-88C3-41CB-80DA-531EBC2C5043}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="182">
   <si>
     <t>classId</t>
   </si>
@@ -256,9 +261,6 @@
     <t>财务管理(CIMA)</t>
   </si>
   <si>
-    <t>11864CI</t>
-  </si>
-  <si>
     <t>曾庆森</t>
   </si>
   <si>
@@ -283,9 +285,6 @@
     <t>会计学(ACCA)</t>
   </si>
   <si>
-    <t>11861AC</t>
-  </si>
-  <si>
     <t>会计学-会计信息化[应用本科]</t>
   </si>
   <si>
@@ -416,6 +415,162 @@
   </si>
   <si>
     <t>李红梅</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>0999</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>0405</t>
+  </si>
+  <si>
+    <t>0499</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>0799</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>0798</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>0409</t>
+  </si>
+  <si>
+    <t>0898</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>0406</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>2187</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>64CI</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>0899</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>61AC</t>
+  </si>
+  <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>0399</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>0811</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1703</t>
   </si>
 </sst>
 </file>
@@ -771,7 +926,7 @@
   <dimension ref="A1:D639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,7 +934,6 @@
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -806,8 +960,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1160301</v>
+      <c r="D2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -820,8 +974,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1160301</v>
+      <c r="D3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -834,8 +988,8 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>1160301</v>
+      <c r="D4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -848,8 +1002,8 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>1160301</v>
+      <c r="D5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -862,8 +1016,8 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>1160307</v>
+      <c r="D6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -876,8 +1030,8 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>1160307</v>
+      <c r="D7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -890,8 +1044,8 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>1160307</v>
+      <c r="D8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,8 +1058,8 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1160307</v>
+      <c r="D9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,8 +1072,8 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>1160309</v>
+      <c r="D10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -932,8 +1086,8 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
-        <v>1160309</v>
+      <c r="D11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -946,8 +1100,8 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>1160307</v>
+      <c r="D12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -960,8 +1114,8 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>1160307</v>
+      <c r="D13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -974,8 +1128,8 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>1160307</v>
+      <c r="D14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -988,8 +1142,8 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>1160307</v>
+      <c r="D15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1002,8 +1156,8 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>1160309</v>
+      <c r="D16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1016,8 +1170,8 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>1160309</v>
+      <c r="D17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1030,8 +1184,8 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>1150301</v>
+      <c r="D18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1044,8 +1198,8 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>1150301</v>
+      <c r="D19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1058,8 +1212,8 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
-        <v>1150307</v>
+      <c r="D20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1072,8 +1226,8 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>1150307</v>
+      <c r="D21" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,8 +1240,8 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
-        <v>1150307</v>
+      <c r="D22" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1100,8 +1254,8 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23">
-        <v>1150307</v>
+      <c r="D23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,8 +1268,8 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
-        <v>1150309</v>
+      <c r="D24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1128,8 +1282,8 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25">
-        <v>1150309</v>
+      <c r="D25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1142,8 +1296,8 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26">
-        <v>1150306</v>
+      <c r="D26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1156,8 +1310,8 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27">
-        <v>1150306</v>
+      <c r="D27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1170,8 +1324,8 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>1150301</v>
+      <c r="D28" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1184,8 +1338,8 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D29">
-        <v>1150301</v>
+      <c r="D29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1198,8 +1352,8 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
-        <v>1150307</v>
+      <c r="D30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1212,8 +1366,8 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31">
-        <v>1150307</v>
+      <c r="D31" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1226,8 +1380,8 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
-        <v>1150307</v>
+      <c r="D32" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1240,8 +1394,8 @@
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33">
-        <v>1150307</v>
+      <c r="D33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,8 +1408,8 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
-        <v>1150309</v>
+      <c r="D34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1268,8 +1422,8 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35">
-        <v>1150309</v>
+      <c r="D35" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1282,8 +1436,8 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36">
-        <v>1150306</v>
+      <c r="D36" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1296,8 +1450,8 @@
       <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="D37">
-        <v>1150306</v>
+      <c r="D37" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1310,8 +1464,8 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38">
-        <v>1160307</v>
+      <c r="D38" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1324,8 +1478,8 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39">
-        <v>1160307</v>
+      <c r="D39" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,8 +1492,8 @@
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40">
-        <v>1160307</v>
+      <c r="D40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1352,8 +1506,8 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41">
-        <v>1160307</v>
+      <c r="D41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,8 +1520,8 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42">
-        <v>1160307</v>
+      <c r="D42" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1380,8 +1534,8 @@
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>1160307</v>
+      <c r="D43" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1394,8 +1548,8 @@
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44">
-        <v>1160307</v>
+      <c r="D44" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1408,8 +1562,8 @@
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45">
-        <v>1160307</v>
+      <c r="D45" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1422,8 +1576,8 @@
       <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="D46">
-        <v>1160308</v>
+      <c r="D46" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1436,8 +1590,8 @@
       <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="D47">
-        <v>1160308</v>
+      <c r="D47" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1450,8 +1604,8 @@
       <c r="C48" t="s">
         <v>17</v>
       </c>
-      <c r="D48">
-        <v>1160308</v>
+      <c r="D48" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1464,8 +1618,8 @@
       <c r="C49" t="s">
         <v>17</v>
       </c>
-      <c r="D49">
-        <v>1160308</v>
+      <c r="D49" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1478,8 +1632,8 @@
       <c r="C50" t="s">
         <v>17</v>
       </c>
-      <c r="D50">
-        <v>1160308</v>
+      <c r="D50" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1492,8 +1646,8 @@
       <c r="C51" t="s">
         <v>17</v>
       </c>
-      <c r="D51">
-        <v>1160308</v>
+      <c r="D51" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1506,8 +1660,8 @@
       <c r="C52" t="s">
         <v>17</v>
       </c>
-      <c r="D52">
-        <v>1160308</v>
+      <c r="D52" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1520,8 +1674,8 @@
       <c r="C53" t="s">
         <v>17</v>
       </c>
-      <c r="D53">
-        <v>1160308</v>
+      <c r="D53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1534,8 +1688,8 @@
       <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="D54">
-        <v>1160307</v>
+      <c r="D54" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1548,8 +1702,8 @@
       <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D55">
-        <v>1160307</v>
+      <c r="D55" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,8 +1716,8 @@
       <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D56">
-        <v>1160307</v>
+      <c r="D56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1576,8 +1730,8 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57">
-        <v>1160307</v>
+      <c r="D57" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1590,8 +1744,8 @@
       <c r="C58" t="s">
         <v>17</v>
       </c>
-      <c r="D58">
-        <v>1170308</v>
+      <c r="D58" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,8 +1758,8 @@
       <c r="C59" t="s">
         <v>17</v>
       </c>
-      <c r="D59">
-        <v>1170308</v>
+      <c r="D59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1618,8 +1772,8 @@
       <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="D60">
-        <v>1170308</v>
+      <c r="D60" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1632,8 +1786,8 @@
       <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="D61">
-        <v>1170308</v>
+      <c r="D61" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1646,8 +1800,8 @@
       <c r="C62" t="s">
         <v>17</v>
       </c>
-      <c r="D62">
-        <v>1170308</v>
+      <c r="D62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1660,8 +1814,8 @@
       <c r="C63" t="s">
         <v>17</v>
       </c>
-      <c r="D63">
-        <v>1170308</v>
+      <c r="D63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1674,8 +1828,8 @@
       <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D64">
-        <v>1170308</v>
+      <c r="D64" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1688,8 +1842,8 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65">
-        <v>1170308</v>
+      <c r="D65" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1702,8 +1856,8 @@
       <c r="C66" t="s">
         <v>20</v>
       </c>
-      <c r="D66">
-        <v>1170108</v>
+      <c r="D66" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1716,8 +1870,8 @@
       <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67">
-        <v>1170108</v>
+      <c r="D67" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1730,8 +1884,8 @@
       <c r="C68" t="s">
         <v>20</v>
       </c>
-      <c r="D68">
-        <v>1170108</v>
+      <c r="D68" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,8 +1898,8 @@
       <c r="C69" t="s">
         <v>20</v>
       </c>
-      <c r="D69">
-        <v>1170108</v>
+      <c r="D69" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,8 +1912,8 @@
       <c r="C70" t="s">
         <v>22</v>
       </c>
-      <c r="D70">
-        <v>1180105</v>
+      <c r="D70" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,8 +1926,8 @@
       <c r="C71" t="s">
         <v>22</v>
       </c>
-      <c r="D71">
-        <v>1180105</v>
+      <c r="D71" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1786,8 +1940,8 @@
       <c r="C72" t="s">
         <v>24</v>
       </c>
-      <c r="D72">
-        <v>1180901</v>
+      <c r="D72" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,8 +1954,8 @@
       <c r="C73" t="s">
         <v>24</v>
       </c>
-      <c r="D73">
-        <v>1180901</v>
+      <c r="D73" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1814,8 +1968,8 @@
       <c r="C74" t="s">
         <v>24</v>
       </c>
-      <c r="D74">
-        <v>1180901</v>
+      <c r="D74" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,8 +1982,8 @@
       <c r="C75" t="s">
         <v>24</v>
       </c>
-      <c r="D75">
-        <v>1180901</v>
+      <c r="D75" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,8 +1996,8 @@
       <c r="C76" t="s">
         <v>24</v>
       </c>
-      <c r="D76">
-        <v>1180901</v>
+      <c r="D76" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,8 +2010,8 @@
       <c r="C77" t="s">
         <v>27</v>
       </c>
-      <c r="D77">
-        <v>1180999</v>
+      <c r="D77" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1870,8 +2024,8 @@
       <c r="C78" t="s">
         <v>27</v>
       </c>
-      <c r="D78">
-        <v>1180999</v>
+      <c r="D78" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,8 +2038,8 @@
       <c r="C79" t="s">
         <v>27</v>
       </c>
-      <c r="D79">
-        <v>1180999</v>
+      <c r="D79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,8 +2052,8 @@
       <c r="C80" t="s">
         <v>27</v>
       </c>
-      <c r="D80">
-        <v>1180999</v>
+      <c r="D80" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,8 +2066,8 @@
       <c r="C81" t="s">
         <v>27</v>
       </c>
-      <c r="D81">
-        <v>1180999</v>
+      <c r="D81" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1926,8 +2080,8 @@
       <c r="C82" t="s">
         <v>27</v>
       </c>
-      <c r="D82">
-        <v>1180999</v>
+      <c r="D82" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1940,8 +2094,8 @@
       <c r="C83" t="s">
         <v>27</v>
       </c>
-      <c r="D83">
-        <v>1180999</v>
+      <c r="D83" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,8 +2108,8 @@
       <c r="C84" t="s">
         <v>27</v>
       </c>
-      <c r="D84">
-        <v>1180999</v>
+      <c r="D84" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,8 +2122,8 @@
       <c r="C85" t="s">
         <v>27</v>
       </c>
-      <c r="D85">
-        <v>1180999</v>
+      <c r="D85" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,8 +2136,8 @@
       <c r="C86" t="s">
         <v>30</v>
       </c>
-      <c r="D86">
-        <v>1181205</v>
+      <c r="D86" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1996,8 +2150,8 @@
       <c r="C87" t="s">
         <v>30</v>
       </c>
-      <c r="D87">
-        <v>1181205</v>
+      <c r="D87" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2010,8 +2164,8 @@
       <c r="C88" t="s">
         <v>32</v>
       </c>
-      <c r="D88">
-        <v>1180405</v>
+      <c r="D88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,8 +2178,8 @@
       <c r="C89" t="s">
         <v>32</v>
       </c>
-      <c r="D89">
-        <v>1180405</v>
+      <c r="D89" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,8 +2192,8 @@
       <c r="C90" t="s">
         <v>32</v>
       </c>
-      <c r="D90">
-        <v>1180405</v>
+      <c r="D90" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,8 +2206,8 @@
       <c r="C91" t="s">
         <v>32</v>
       </c>
-      <c r="D91">
-        <v>1180405</v>
+      <c r="D91" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,8 +2220,8 @@
       <c r="C92" t="s">
         <v>32</v>
       </c>
-      <c r="D92">
-        <v>1180405</v>
+      <c r="D92" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,8 +2234,8 @@
       <c r="C93" t="s">
         <v>32</v>
       </c>
-      <c r="D93">
-        <v>1180405</v>
+      <c r="D93" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,8 +2248,8 @@
       <c r="C94" t="s">
         <v>35</v>
       </c>
-      <c r="D94">
-        <v>1180499</v>
+      <c r="D94" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,8 +2262,8 @@
       <c r="C95" t="s">
         <v>35</v>
       </c>
-      <c r="D95">
-        <v>1180499</v>
+      <c r="D95" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,8 +2276,8 @@
       <c r="C96" t="s">
         <v>37</v>
       </c>
-      <c r="D96">
-        <v>1182174</v>
+      <c r="D96" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,8 +2290,8 @@
       <c r="C97" t="s">
         <v>39</v>
       </c>
-      <c r="D97">
-        <v>1180799</v>
+      <c r="D97" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,8 +2304,8 @@
       <c r="C98" t="s">
         <v>39</v>
       </c>
-      <c r="D98">
-        <v>1180799</v>
+      <c r="D98" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,8 +2318,8 @@
       <c r="C99" t="s">
         <v>39</v>
       </c>
-      <c r="D99">
-        <v>1180799</v>
+      <c r="D99" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,8 +2332,8 @@
       <c r="C100" t="s">
         <v>39</v>
       </c>
-      <c r="D100">
-        <v>1180799</v>
+      <c r="D100" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2192,8 +2346,8 @@
       <c r="C101" t="s">
         <v>39</v>
       </c>
-      <c r="D101">
-        <v>1180799</v>
+      <c r="D101" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,8 +2360,8 @@
       <c r="C102" t="s">
         <v>39</v>
       </c>
-      <c r="D102">
-        <v>1180799</v>
+      <c r="D102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2220,8 +2374,8 @@
       <c r="C103" t="s">
         <v>39</v>
       </c>
-      <c r="D103">
-        <v>1180799</v>
+      <c r="D103" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,8 +2388,8 @@
       <c r="C104" t="s">
         <v>39</v>
       </c>
-      <c r="D104">
-        <v>1180799</v>
+      <c r="D104" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2248,8 +2402,8 @@
       <c r="C105" t="s">
         <v>41</v>
       </c>
-      <c r="D105">
-        <v>1182303</v>
+      <c r="D105" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2262,8 +2416,8 @@
       <c r="C106" t="s">
         <v>41</v>
       </c>
-      <c r="D106">
-        <v>1182303</v>
+      <c r="D106" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2276,8 +2430,8 @@
       <c r="C107" t="s">
         <v>42</v>
       </c>
-      <c r="D107">
-        <v>1180798</v>
+      <c r="D107" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2290,8 +2444,8 @@
       <c r="C108" t="s">
         <v>42</v>
       </c>
-      <c r="D108">
-        <v>1180798</v>
+      <c r="D108" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,8 +2458,8 @@
       <c r="C109" t="s">
         <v>42</v>
       </c>
-      <c r="D109">
-        <v>1180798</v>
+      <c r="D109" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,8 +2472,8 @@
       <c r="C110" t="s">
         <v>42</v>
       </c>
-      <c r="D110">
-        <v>1180798</v>
+      <c r="D110" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2332,8 +2486,8 @@
       <c r="C111" t="s">
         <v>42</v>
       </c>
-      <c r="D111">
-        <v>1180798</v>
+      <c r="D111" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,8 +2500,8 @@
       <c r="C112" t="s">
         <v>42</v>
       </c>
-      <c r="D112">
-        <v>1180798</v>
+      <c r="D112" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2360,8 +2514,8 @@
       <c r="C113" t="s">
         <v>42</v>
       </c>
-      <c r="D113">
-        <v>1180798</v>
+      <c r="D113" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2374,8 +2528,8 @@
       <c r="C114" t="s">
         <v>42</v>
       </c>
-      <c r="D114">
-        <v>1180798</v>
+      <c r="D114" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,8 +2542,8 @@
       <c r="C115" t="s">
         <v>42</v>
       </c>
-      <c r="D115">
-        <v>1180798</v>
+      <c r="D115" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,8 +2556,8 @@
       <c r="C116" t="s">
         <v>42</v>
       </c>
-      <c r="D116">
-        <v>1180798</v>
+      <c r="D116" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2416,8 +2570,8 @@
       <c r="C117" t="s">
         <v>44</v>
       </c>
-      <c r="D117">
-        <v>1181203</v>
+      <c r="D117" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,8 +2584,8 @@
       <c r="C118" t="s">
         <v>44</v>
       </c>
-      <c r="D118">
-        <v>1181203</v>
+      <c r="D118" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,8 +2598,8 @@
       <c r="C119" t="s">
         <v>44</v>
       </c>
-      <c r="D119">
-        <v>1181203</v>
+      <c r="D119" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,8 +2612,8 @@
       <c r="C120" t="s">
         <v>46</v>
       </c>
-      <c r="D120">
-        <v>1180409</v>
+      <c r="D120" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2472,8 +2626,8 @@
       <c r="C121" t="s">
         <v>46</v>
       </c>
-      <c r="D121">
-        <v>1180409</v>
+      <c r="D121" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,8 +2640,8 @@
       <c r="C122" t="s">
         <v>48</v>
       </c>
-      <c r="D122">
-        <v>1180898</v>
+      <c r="D122" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2500,8 +2654,8 @@
       <c r="C123" t="s">
         <v>48</v>
       </c>
-      <c r="D123">
-        <v>1180898</v>
+      <c r="D123" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2514,8 +2668,8 @@
       <c r="C124" t="s">
         <v>48</v>
       </c>
-      <c r="D124">
-        <v>1180898</v>
+      <c r="D124" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,8 +2682,8 @@
       <c r="C125" t="s">
         <v>48</v>
       </c>
-      <c r="D125">
-        <v>1180898</v>
+      <c r="D125" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2542,8 +2696,8 @@
       <c r="C126" t="s">
         <v>48</v>
       </c>
-      <c r="D126">
-        <v>1180898</v>
+      <c r="D126" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,8 +2710,8 @@
       <c r="C127" t="s">
         <v>48</v>
       </c>
-      <c r="D127">
-        <v>1180898</v>
+      <c r="D127" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,8 +2724,8 @@
       <c r="C128" t="s">
         <v>50</v>
       </c>
-      <c r="D128">
-        <v>1181599</v>
+      <c r="D128" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,8 +2738,8 @@
       <c r="C129" t="s">
         <v>50</v>
       </c>
-      <c r="D129">
-        <v>1181599</v>
+      <c r="D129" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2598,8 +2752,8 @@
       <c r="C130" t="s">
         <v>50</v>
       </c>
-      <c r="D130">
-        <v>1181599</v>
+      <c r="D130" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2612,8 +2766,8 @@
       <c r="C131" t="s">
         <v>50</v>
       </c>
-      <c r="D131">
-        <v>1181599</v>
+      <c r="D131" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,8 +2780,8 @@
       <c r="C132" t="s">
         <v>50</v>
       </c>
-      <c r="D132">
-        <v>1181599</v>
+      <c r="D132" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2640,8 +2794,8 @@
       <c r="C133" t="s">
         <v>50</v>
       </c>
-      <c r="D133">
-        <v>1181599</v>
+      <c r="D133" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2654,8 +2808,8 @@
       <c r="C134" t="s">
         <v>50</v>
       </c>
-      <c r="D134">
-        <v>1181599</v>
+      <c r="D134" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2668,8 +2822,8 @@
       <c r="C135" t="s">
         <v>50</v>
       </c>
-      <c r="D135">
-        <v>1181599</v>
+      <c r="D135" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2682,8 +2836,8 @@
       <c r="C136" t="s">
         <v>54</v>
       </c>
-      <c r="D136">
-        <v>1181206</v>
+      <c r="D136" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,8 +2850,8 @@
       <c r="C137" t="s">
         <v>54</v>
       </c>
-      <c r="D137">
-        <v>1181206</v>
+      <c r="D137" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -2710,8 +2864,8 @@
       <c r="C138" t="s">
         <v>56</v>
       </c>
-      <c r="D138">
-        <v>1181299</v>
+      <c r="D138" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2724,8 +2878,8 @@
       <c r="C139" t="s">
         <v>56</v>
       </c>
-      <c r="D139">
-        <v>1181299</v>
+      <c r="D139" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2738,8 +2892,8 @@
       <c r="C140" t="s">
         <v>56</v>
       </c>
-      <c r="D140">
-        <v>1181299</v>
+      <c r="D140" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2752,8 +2906,8 @@
       <c r="C141" t="s">
         <v>56</v>
       </c>
-      <c r="D141">
-        <v>1181299</v>
+      <c r="D141" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2766,8 +2920,8 @@
       <c r="C142" t="s">
         <v>56</v>
       </c>
-      <c r="D142">
-        <v>1181299</v>
+      <c r="D142" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2780,8 +2934,8 @@
       <c r="C143" t="s">
         <v>56</v>
       </c>
-      <c r="D143">
-        <v>1181299</v>
+      <c r="D143" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -2794,8 +2948,8 @@
       <c r="C144" t="s">
         <v>56</v>
       </c>
-      <c r="D144">
-        <v>1181299</v>
+      <c r="D144" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -2808,8 +2962,8 @@
       <c r="C145" t="s">
         <v>56</v>
       </c>
-      <c r="D145">
-        <v>1181299</v>
+      <c r="D145" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,8 +2976,8 @@
       <c r="C146" t="s">
         <v>56</v>
       </c>
-      <c r="D146">
-        <v>1181299</v>
+      <c r="D146" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -2836,8 +2990,8 @@
       <c r="C147" t="s">
         <v>56</v>
       </c>
-      <c r="D147">
-        <v>1181299</v>
+      <c r="D147" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -2850,8 +3004,8 @@
       <c r="C148" t="s">
         <v>56</v>
       </c>
-      <c r="D148">
-        <v>1181299</v>
+      <c r="D148" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -2864,8 +3018,8 @@
       <c r="C149" t="s">
         <v>56</v>
       </c>
-      <c r="D149">
-        <v>1181299</v>
+      <c r="D149" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -2878,8 +3032,8 @@
       <c r="C150" t="s">
         <v>58</v>
       </c>
-      <c r="D150">
-        <v>1182142</v>
+      <c r="D150" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -2892,8 +3046,8 @@
       <c r="C151" t="s">
         <v>22</v>
       </c>
-      <c r="D151">
-        <v>1180105</v>
+      <c r="D151" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -2906,8 +3060,8 @@
       <c r="C152" t="s">
         <v>22</v>
       </c>
-      <c r="D152">
-        <v>1180105</v>
+      <c r="D152" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -2920,8 +3074,8 @@
       <c r="C153" t="s">
         <v>59</v>
       </c>
-      <c r="D153">
-        <v>1180406</v>
+      <c r="D153" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -2934,8 +3088,8 @@
       <c r="C154" t="s">
         <v>59</v>
       </c>
-      <c r="D154">
-        <v>1180406</v>
+      <c r="D154" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -2948,8 +3102,8 @@
       <c r="C155" t="s">
         <v>60</v>
       </c>
-      <c r="D155">
-        <v>1180401</v>
+      <c r="D155" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -2962,8 +3116,8 @@
       <c r="C156" t="s">
         <v>60</v>
       </c>
-      <c r="D156">
-        <v>1180401</v>
+      <c r="D156" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -2976,8 +3130,8 @@
       <c r="C157" t="s">
         <v>61</v>
       </c>
-      <c r="D157">
-        <v>1181001</v>
+      <c r="D157" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -2990,8 +3144,8 @@
       <c r="C158" t="s">
         <v>63</v>
       </c>
-      <c r="D158">
-        <v>1181004</v>
+      <c r="D158" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -3004,8 +3158,8 @@
       <c r="C159" t="s">
         <v>63</v>
       </c>
-      <c r="D159">
-        <v>1181004</v>
+      <c r="D159" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -3018,8 +3172,8 @@
       <c r="C160" t="s">
         <v>64</v>
       </c>
-      <c r="D160">
-        <v>1180107</v>
+      <c r="D160" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -3032,8 +3186,8 @@
       <c r="C161" t="s">
         <v>64</v>
       </c>
-      <c r="D161">
-        <v>1180107</v>
+      <c r="D161" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -3046,8 +3200,8 @@
       <c r="C162" t="s">
         <v>66</v>
       </c>
-      <c r="D162">
-        <v>1181099</v>
+      <c r="D162" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3060,8 +3214,8 @@
       <c r="C163" t="s">
         <v>66</v>
       </c>
-      <c r="D163">
-        <v>1181099</v>
+      <c r="D163" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -3074,8 +3228,8 @@
       <c r="C164" t="s">
         <v>66</v>
       </c>
-      <c r="D164">
-        <v>1181099</v>
+      <c r="D164" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3088,8 +3242,8 @@
       <c r="C165" t="s">
         <v>66</v>
       </c>
-      <c r="D165">
-        <v>1181099</v>
+      <c r="D165" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -3102,8 +3256,8 @@
       <c r="C166" t="s">
         <v>66</v>
       </c>
-      <c r="D166">
-        <v>1181099</v>
+      <c r="D166" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3116,8 +3270,8 @@
       <c r="C167" t="s">
         <v>66</v>
       </c>
-      <c r="D167">
-        <v>1181099</v>
+      <c r="D167" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -3130,8 +3284,8 @@
       <c r="C168" t="s">
         <v>67</v>
       </c>
-      <c r="D168">
-        <v>1180102</v>
+      <c r="D168" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3144,8 +3298,8 @@
       <c r="C169" t="s">
         <v>67</v>
       </c>
-      <c r="D169">
-        <v>1180102</v>
+      <c r="D169" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -3158,8 +3312,8 @@
       <c r="C170" t="s">
         <v>67</v>
       </c>
-      <c r="D170">
-        <v>1180102</v>
+      <c r="D170" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -3172,8 +3326,8 @@
       <c r="C171" t="s">
         <v>67</v>
       </c>
-      <c r="D171">
-        <v>1180102</v>
+      <c r="D171" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -3186,8 +3340,8 @@
       <c r="C172" t="s">
         <v>68</v>
       </c>
-      <c r="D172">
-        <v>1180106</v>
+      <c r="D172" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -3200,8 +3354,8 @@
       <c r="C173" t="s">
         <v>69</v>
       </c>
-      <c r="D173">
-        <v>1180403</v>
+      <c r="D173" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,8 +3368,8 @@
       <c r="C174" t="s">
         <v>24</v>
       </c>
-      <c r="D174">
-        <v>1180901</v>
+      <c r="D174" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3228,8 +3382,8 @@
       <c r="C175" t="s">
         <v>24</v>
       </c>
-      <c r="D175">
-        <v>1180901</v>
+      <c r="D175" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3242,8 +3396,8 @@
       <c r="C176" t="s">
         <v>24</v>
       </c>
-      <c r="D176">
-        <v>1180901</v>
+      <c r="D176" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3256,8 +3410,8 @@
       <c r="C177" t="s">
         <v>24</v>
       </c>
-      <c r="D177">
-        <v>1180901</v>
+      <c r="D177" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3270,8 +3424,8 @@
       <c r="C178" t="s">
         <v>24</v>
       </c>
-      <c r="D178">
-        <v>1180901</v>
+      <c r="D178" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3284,8 +3438,8 @@
       <c r="C179" t="s">
         <v>27</v>
       </c>
-      <c r="D179">
-        <v>1180999</v>
+      <c r="D179" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3298,8 +3452,8 @@
       <c r="C180" t="s">
         <v>27</v>
       </c>
-      <c r="D180">
-        <v>1180999</v>
+      <c r="D180" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3312,8 +3466,8 @@
       <c r="C181" t="s">
         <v>27</v>
       </c>
-      <c r="D181">
-        <v>1180999</v>
+      <c r="D181" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3326,8 +3480,8 @@
       <c r="C182" t="s">
         <v>27</v>
       </c>
-      <c r="D182">
-        <v>1180999</v>
+      <c r="D182" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -3340,8 +3494,8 @@
       <c r="C183" t="s">
         <v>27</v>
       </c>
-      <c r="D183">
-        <v>1180999</v>
+      <c r="D183" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3354,8 +3508,8 @@
       <c r="C184" t="s">
         <v>27</v>
       </c>
-      <c r="D184">
-        <v>1180999</v>
+      <c r="D184" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3368,8 +3522,8 @@
       <c r="C185" t="s">
         <v>27</v>
       </c>
-      <c r="D185">
-        <v>1180999</v>
+      <c r="D185" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3382,8 +3536,8 @@
       <c r="C186" t="s">
         <v>27</v>
       </c>
-      <c r="D186">
-        <v>1180999</v>
+      <c r="D186" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3396,8 +3550,8 @@
       <c r="C187" t="s">
         <v>27</v>
       </c>
-      <c r="D187">
-        <v>1180999</v>
+      <c r="D187" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3410,8 +3564,8 @@
       <c r="C188" t="s">
         <v>30</v>
       </c>
-      <c r="D188">
-        <v>1181205</v>
+      <c r="D188" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -3424,8 +3578,8 @@
       <c r="C189" t="s">
         <v>30</v>
       </c>
-      <c r="D189">
-        <v>1181205</v>
+      <c r="D189" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3438,8 +3592,8 @@
       <c r="C190" t="s">
         <v>32</v>
       </c>
-      <c r="D190">
-        <v>1180405</v>
+      <c r="D190" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3452,8 +3606,8 @@
       <c r="C191" t="s">
         <v>32</v>
       </c>
-      <c r="D191">
-        <v>1180405</v>
+      <c r="D191" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,8 +3620,8 @@
       <c r="C192" t="s">
         <v>32</v>
       </c>
-      <c r="D192">
-        <v>1180405</v>
+      <c r="D192" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3480,8 +3634,8 @@
       <c r="C193" t="s">
         <v>32</v>
       </c>
-      <c r="D193">
-        <v>1180405</v>
+      <c r="D193" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -3494,8 +3648,8 @@
       <c r="C194" t="s">
         <v>32</v>
       </c>
-      <c r="D194">
-        <v>1180405</v>
+      <c r="D194" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -3508,8 +3662,8 @@
       <c r="C195" t="s">
         <v>32</v>
       </c>
-      <c r="D195">
-        <v>1180405</v>
+      <c r="D195" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -3522,8 +3676,8 @@
       <c r="C196" t="s">
         <v>35</v>
       </c>
-      <c r="D196">
-        <v>1180499</v>
+      <c r="D196" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,8 +3690,8 @@
       <c r="C197" t="s">
         <v>35</v>
       </c>
-      <c r="D197">
-        <v>1180499</v>
+      <c r="D197" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,8 +3704,8 @@
       <c r="C198" t="s">
         <v>37</v>
       </c>
-      <c r="D198">
-        <v>1182174</v>
+      <c r="D198" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3564,8 +3718,8 @@
       <c r="C199" t="s">
         <v>39</v>
       </c>
-      <c r="D199">
-        <v>1180799</v>
+      <c r="D199" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3578,8 +3732,8 @@
       <c r="C200" t="s">
         <v>39</v>
       </c>
-      <c r="D200">
-        <v>1180799</v>
+      <c r="D200" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3592,8 +3746,8 @@
       <c r="C201" t="s">
         <v>39</v>
       </c>
-      <c r="D201">
-        <v>1180799</v>
+      <c r="D201" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3606,8 +3760,8 @@
       <c r="C202" t="s">
         <v>39</v>
       </c>
-      <c r="D202">
-        <v>1180799</v>
+      <c r="D202" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3620,8 +3774,8 @@
       <c r="C203" t="s">
         <v>39</v>
       </c>
-      <c r="D203">
-        <v>1180799</v>
+      <c r="D203" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3634,8 +3788,8 @@
       <c r="C204" t="s">
         <v>39</v>
       </c>
-      <c r="D204">
-        <v>1180799</v>
+      <c r="D204" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3648,8 +3802,8 @@
       <c r="C205" t="s">
         <v>39</v>
       </c>
-      <c r="D205">
-        <v>1180799</v>
+      <c r="D205" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3662,8 +3816,8 @@
       <c r="C206" t="s">
         <v>39</v>
       </c>
-      <c r="D206">
-        <v>1180799</v>
+      <c r="D206" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3676,8 +3830,8 @@
       <c r="C207" t="s">
         <v>41</v>
       </c>
-      <c r="D207">
-        <v>1182303</v>
+      <c r="D207" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3690,8 +3844,8 @@
       <c r="C208" t="s">
         <v>41</v>
       </c>
-      <c r="D208">
-        <v>1182303</v>
+      <c r="D208" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3704,8 +3858,8 @@
       <c r="C209" t="s">
         <v>42</v>
       </c>
-      <c r="D209">
-        <v>1180798</v>
+      <c r="D209" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3718,8 +3872,8 @@
       <c r="C210" t="s">
         <v>42</v>
       </c>
-      <c r="D210">
-        <v>1180798</v>
+      <c r="D210" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3732,8 +3886,8 @@
       <c r="C211" t="s">
         <v>42</v>
       </c>
-      <c r="D211">
-        <v>1180798</v>
+      <c r="D211" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3746,8 +3900,8 @@
       <c r="C212" t="s">
         <v>42</v>
       </c>
-      <c r="D212">
-        <v>1180798</v>
+      <c r="D212" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3760,8 +3914,8 @@
       <c r="C213" t="s">
         <v>42</v>
       </c>
-      <c r="D213">
-        <v>1180798</v>
+      <c r="D213" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3774,8 +3928,8 @@
       <c r="C214" t="s">
         <v>42</v>
       </c>
-      <c r="D214">
-        <v>1180798</v>
+      <c r="D214" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3788,8 +3942,8 @@
       <c r="C215" t="s">
         <v>42</v>
       </c>
-      <c r="D215">
-        <v>1180798</v>
+      <c r="D215" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3802,8 +3956,8 @@
       <c r="C216" t="s">
         <v>42</v>
       </c>
-      <c r="D216">
-        <v>1180798</v>
+      <c r="D216" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -3816,8 +3970,8 @@
       <c r="C217" t="s">
         <v>42</v>
       </c>
-      <c r="D217">
-        <v>1180798</v>
+      <c r="D217" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -3830,8 +3984,8 @@
       <c r="C218" t="s">
         <v>42</v>
       </c>
-      <c r="D218">
-        <v>1180798</v>
+      <c r="D218" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -3844,8 +3998,8 @@
       <c r="C219" t="s">
         <v>44</v>
       </c>
-      <c r="D219">
-        <v>1181203</v>
+      <c r="D219" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -3858,8 +4012,8 @@
       <c r="C220" t="s">
         <v>44</v>
       </c>
-      <c r="D220">
-        <v>1181203</v>
+      <c r="D220" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -3872,8 +4026,8 @@
       <c r="C221" t="s">
         <v>44</v>
       </c>
-      <c r="D221">
-        <v>1181203</v>
+      <c r="D221" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,8 +4040,8 @@
       <c r="C222" t="s">
         <v>46</v>
       </c>
-      <c r="D222">
-        <v>1180409</v>
+      <c r="D222" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -3900,8 +4054,8 @@
       <c r="C223" t="s">
         <v>46</v>
       </c>
-      <c r="D223">
-        <v>1180409</v>
+      <c r="D223" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -3914,8 +4068,8 @@
       <c r="C224" t="s">
         <v>48</v>
       </c>
-      <c r="D224">
-        <v>1180898</v>
+      <c r="D224" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -3928,8 +4082,8 @@
       <c r="C225" t="s">
         <v>48</v>
       </c>
-      <c r="D225">
-        <v>1180898</v>
+      <c r="D225" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,8 +4096,8 @@
       <c r="C226" t="s">
         <v>48</v>
       </c>
-      <c r="D226">
-        <v>1180898</v>
+      <c r="D226" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,8 +4110,8 @@
       <c r="C227" t="s">
         <v>48</v>
       </c>
-      <c r="D227">
-        <v>1180898</v>
+      <c r="D227" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -3970,8 +4124,8 @@
       <c r="C228" t="s">
         <v>48</v>
       </c>
-      <c r="D228">
-        <v>1180898</v>
+      <c r="D228" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,8 +4138,8 @@
       <c r="C229" t="s">
         <v>48</v>
       </c>
-      <c r="D229">
-        <v>1180898</v>
+      <c r="D229" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,8 +4152,8 @@
       <c r="C230" t="s">
         <v>50</v>
       </c>
-      <c r="D230">
-        <v>1181599</v>
+      <c r="D230" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -4012,8 +4166,8 @@
       <c r="C231" t="s">
         <v>50</v>
       </c>
-      <c r="D231">
-        <v>1181599</v>
+      <c r="D231" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -4026,8 +4180,8 @@
       <c r="C232" t="s">
         <v>50</v>
       </c>
-      <c r="D232">
-        <v>1181599</v>
+      <c r="D232" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -4040,8 +4194,8 @@
       <c r="C233" t="s">
         <v>50</v>
       </c>
-      <c r="D233">
-        <v>1181599</v>
+      <c r="D233" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -4054,8 +4208,8 @@
       <c r="C234" t="s">
         <v>50</v>
       </c>
-      <c r="D234">
-        <v>1181599</v>
+      <c r="D234" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -4068,8 +4222,8 @@
       <c r="C235" t="s">
         <v>50</v>
       </c>
-      <c r="D235">
-        <v>1181599</v>
+      <c r="D235" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -4082,8 +4236,8 @@
       <c r="C236" t="s">
         <v>50</v>
       </c>
-      <c r="D236">
-        <v>1181599</v>
+      <c r="D236" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -4096,8 +4250,8 @@
       <c r="C237" t="s">
         <v>50</v>
       </c>
-      <c r="D237">
-        <v>1181599</v>
+      <c r="D237" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -4110,8 +4264,8 @@
       <c r="C238" t="s">
         <v>54</v>
       </c>
-      <c r="D238">
-        <v>1181206</v>
+      <c r="D238" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -4124,8 +4278,8 @@
       <c r="C239" t="s">
         <v>54</v>
       </c>
-      <c r="D239">
-        <v>1181206</v>
+      <c r="D239" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -4138,8 +4292,8 @@
       <c r="C240" t="s">
         <v>56</v>
       </c>
-      <c r="D240">
-        <v>1181299</v>
+      <c r="D240" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -4152,8 +4306,8 @@
       <c r="C241" t="s">
         <v>56</v>
       </c>
-      <c r="D241">
-        <v>1181299</v>
+      <c r="D241" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -4166,8 +4320,8 @@
       <c r="C242" t="s">
         <v>56</v>
       </c>
-      <c r="D242">
-        <v>1181299</v>
+      <c r="D242" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -4180,8 +4334,8 @@
       <c r="C243" t="s">
         <v>56</v>
       </c>
-      <c r="D243">
-        <v>1181299</v>
+      <c r="D243" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -4194,8 +4348,8 @@
       <c r="C244" t="s">
         <v>56</v>
       </c>
-      <c r="D244">
-        <v>1181299</v>
+      <c r="D244" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,8 +4362,8 @@
       <c r="C245" t="s">
         <v>56</v>
       </c>
-      <c r="D245">
-        <v>1181299</v>
+      <c r="D245" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -4222,8 +4376,8 @@
       <c r="C246" t="s">
         <v>56</v>
       </c>
-      <c r="D246">
-        <v>1181299</v>
+      <c r="D246" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -4236,8 +4390,8 @@
       <c r="C247" t="s">
         <v>56</v>
       </c>
-      <c r="D247">
-        <v>1181299</v>
+      <c r="D247" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -4250,8 +4404,8 @@
       <c r="C248" t="s">
         <v>56</v>
       </c>
-      <c r="D248">
-        <v>1181299</v>
+      <c r="D248" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -4264,8 +4418,8 @@
       <c r="C249" t="s">
         <v>56</v>
       </c>
-      <c r="D249">
-        <v>1181299</v>
+      <c r="D249" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -4278,8 +4432,8 @@
       <c r="C250" t="s">
         <v>56</v>
       </c>
-      <c r="D250">
-        <v>1181299</v>
+      <c r="D250" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -4292,8 +4446,8 @@
       <c r="C251" t="s">
         <v>56</v>
       </c>
-      <c r="D251">
-        <v>1181299</v>
+      <c r="D251" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -4306,8 +4460,8 @@
       <c r="C252" t="s">
         <v>58</v>
       </c>
-      <c r="D252">
-        <v>1182142</v>
+      <c r="D252" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -4320,8 +4474,8 @@
       <c r="C253" t="s">
         <v>22</v>
       </c>
-      <c r="D253">
-        <v>1180105</v>
+      <c r="D253" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -4334,8 +4488,8 @@
       <c r="C254" t="s">
         <v>22</v>
       </c>
-      <c r="D254">
-        <v>1180105</v>
+      <c r="D254" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -4348,8 +4502,8 @@
       <c r="C255" t="s">
         <v>59</v>
       </c>
-      <c r="D255">
-        <v>1180406</v>
+      <c r="D255" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -4362,8 +4516,8 @@
       <c r="C256" t="s">
         <v>59</v>
       </c>
-      <c r="D256">
-        <v>1180406</v>
+      <c r="D256" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -4376,8 +4530,8 @@
       <c r="C257" t="s">
         <v>60</v>
       </c>
-      <c r="D257">
-        <v>1180401</v>
+      <c r="D257" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -4390,8 +4544,8 @@
       <c r="C258" t="s">
         <v>60</v>
       </c>
-      <c r="D258">
-        <v>1180401</v>
+      <c r="D258" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,8 +4558,8 @@
       <c r="C259" t="s">
         <v>61</v>
       </c>
-      <c r="D259">
-        <v>1181001</v>
+      <c r="D259" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -4418,8 +4572,8 @@
       <c r="C260" t="s">
         <v>63</v>
       </c>
-      <c r="D260">
-        <v>1181004</v>
+      <c r="D260" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -4432,8 +4586,8 @@
       <c r="C261" t="s">
         <v>63</v>
       </c>
-      <c r="D261">
-        <v>1181004</v>
+      <c r="D261" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -4446,8 +4600,8 @@
       <c r="C262" t="s">
         <v>64</v>
       </c>
-      <c r="D262">
-        <v>1180107</v>
+      <c r="D262" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -4460,8 +4614,8 @@
       <c r="C263" t="s">
         <v>64</v>
       </c>
-      <c r="D263">
-        <v>1180107</v>
+      <c r="D263" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,8 +4628,8 @@
       <c r="C264" t="s">
         <v>66</v>
       </c>
-      <c r="D264">
-        <v>1181099</v>
+      <c r="D264" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,8 +4642,8 @@
       <c r="C265" t="s">
         <v>66</v>
       </c>
-      <c r="D265">
-        <v>1181099</v>
+      <c r="D265" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -4502,8 +4656,8 @@
       <c r="C266" t="s">
         <v>66</v>
       </c>
-      <c r="D266">
-        <v>1181099</v>
+      <c r="D266" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -4516,8 +4670,8 @@
       <c r="C267" t="s">
         <v>66</v>
       </c>
-      <c r="D267">
-        <v>1181099</v>
+      <c r="D267" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,8 +4684,8 @@
       <c r="C268" t="s">
         <v>66</v>
       </c>
-      <c r="D268">
-        <v>1181099</v>
+      <c r="D268" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,8 +4698,8 @@
       <c r="C269" t="s">
         <v>66</v>
       </c>
-      <c r="D269">
-        <v>1181099</v>
+      <c r="D269" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,8 +4712,8 @@
       <c r="C270" t="s">
         <v>67</v>
       </c>
-      <c r="D270">
-        <v>1180102</v>
+      <c r="D270" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,8 +4726,8 @@
       <c r="C271" t="s">
         <v>67</v>
       </c>
-      <c r="D271">
-        <v>1180102</v>
+      <c r="D271" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,8 +4740,8 @@
       <c r="C272" t="s">
         <v>67</v>
       </c>
-      <c r="D272">
-        <v>1180102</v>
+      <c r="D272" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,8 +4754,8 @@
       <c r="C273" t="s">
         <v>67</v>
       </c>
-      <c r="D273">
-        <v>1180102</v>
+      <c r="D273" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -4614,8 +4768,8 @@
       <c r="C274" t="s">
         <v>68</v>
       </c>
-      <c r="D274">
-        <v>1180106</v>
+      <c r="D274" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -4628,8 +4782,8 @@
       <c r="C275" t="s">
         <v>69</v>
       </c>
-      <c r="D275">
-        <v>1180403</v>
+      <c r="D275" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,8 +4796,8 @@
       <c r="C276" t="s">
         <v>71</v>
       </c>
-      <c r="D276">
-        <v>1180205</v>
+      <c r="D276" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -4656,8 +4810,8 @@
       <c r="C277" t="s">
         <v>71</v>
       </c>
-      <c r="D277">
-        <v>1180205</v>
+      <c r="D277" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4670,8 +4824,8 @@
       <c r="C278" t="s">
         <v>71</v>
       </c>
-      <c r="D278">
-        <v>1180205</v>
+      <c r="D278" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,8 +4838,8 @@
       <c r="C279" t="s">
         <v>72</v>
       </c>
-      <c r="D279">
-        <v>1180201</v>
+      <c r="D279" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -4698,8 +4852,8 @@
       <c r="C280" t="s">
         <v>72</v>
       </c>
-      <c r="D280">
-        <v>1180201</v>
+      <c r="D280" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,8 +4866,8 @@
       <c r="C281" t="s">
         <v>73</v>
       </c>
-      <c r="D281">
-        <v>1182187</v>
+      <c r="D281" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -4726,8 +4880,8 @@
       <c r="C282" t="s">
         <v>71</v>
       </c>
-      <c r="D282">
-        <v>1180205</v>
+      <c r="D282" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -4740,8 +4894,8 @@
       <c r="C283" t="s">
         <v>71</v>
       </c>
-      <c r="D283">
-        <v>1180205</v>
+      <c r="D283" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -4754,8 +4908,8 @@
       <c r="C284" t="s">
         <v>71</v>
       </c>
-      <c r="D284">
-        <v>1180205</v>
+      <c r="D284" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -4768,8 +4922,8 @@
       <c r="C285" t="s">
         <v>72</v>
       </c>
-      <c r="D285">
-        <v>1180201</v>
+      <c r="D285" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,8 +4936,8 @@
       <c r="C286" t="s">
         <v>72</v>
       </c>
-      <c r="D286">
-        <v>1180201</v>
+      <c r="D286" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -4796,8 +4950,8 @@
       <c r="C287" t="s">
         <v>73</v>
       </c>
-      <c r="D287">
-        <v>1182187</v>
+      <c r="D287" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -4810,8 +4964,8 @@
       <c r="C288" t="s">
         <v>75</v>
       </c>
-      <c r="D288">
-        <v>1180604</v>
+      <c r="D288" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4824,8 +4978,8 @@
       <c r="C289" t="s">
         <v>75</v>
       </c>
-      <c r="D289">
-        <v>1180604</v>
+      <c r="D289" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -4839,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="D290" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -4847,13 +5001,13 @@
         <v>118170401</v>
       </c>
       <c r="B291" t="s">
+        <v>78</v>
+      </c>
+      <c r="C291" t="s">
         <v>79</v>
       </c>
-      <c r="C291" t="s">
-        <v>80</v>
-      </c>
-      <c r="D291">
-        <v>1181704</v>
+      <c r="D291" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -4861,13 +5015,13 @@
         <v>118170402</v>
       </c>
       <c r="B292" t="s">
+        <v>78</v>
+      </c>
+      <c r="C292" t="s">
         <v>79</v>
       </c>
-      <c r="C292" t="s">
-        <v>80</v>
-      </c>
-      <c r="D292">
-        <v>1181704</v>
+      <c r="D292" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,13 +5029,13 @@
         <v>118089901</v>
       </c>
       <c r="B293" t="s">
+        <v>80</v>
+      </c>
+      <c r="C293" t="s">
         <v>81</v>
       </c>
-      <c r="C293" t="s">
-        <v>82</v>
-      </c>
-      <c r="D293">
-        <v>1180899</v>
+      <c r="D293" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -4889,13 +5043,13 @@
         <v>118089902</v>
       </c>
       <c r="B294" t="s">
+        <v>80</v>
+      </c>
+      <c r="C294" t="s">
         <v>81</v>
       </c>
-      <c r="C294" t="s">
-        <v>82</v>
-      </c>
-      <c r="D294">
-        <v>1180899</v>
+      <c r="D294" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -4903,13 +5057,13 @@
         <v>118089903</v>
       </c>
       <c r="B295" t="s">
+        <v>80</v>
+      </c>
+      <c r="C295" t="s">
         <v>81</v>
       </c>
-      <c r="C295" t="s">
-        <v>82</v>
-      </c>
-      <c r="D295">
-        <v>1180899</v>
+      <c r="D295" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -4917,13 +5071,13 @@
         <v>118089904</v>
       </c>
       <c r="B296" t="s">
+        <v>80</v>
+      </c>
+      <c r="C296" t="s">
         <v>81</v>
       </c>
-      <c r="C296" t="s">
-        <v>82</v>
-      </c>
-      <c r="D296">
-        <v>1180899</v>
+      <c r="D296" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -4931,13 +5085,13 @@
         <v>118089905</v>
       </c>
       <c r="B297" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C297" t="s">
-        <v>82</v>
-      </c>
-      <c r="D297">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D297" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -4945,13 +5099,13 @@
         <v>118089906</v>
       </c>
       <c r="B298" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C298" t="s">
-        <v>82</v>
-      </c>
-      <c r="D298">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D298" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -4959,13 +5113,13 @@
         <v>118089907</v>
       </c>
       <c r="B299" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C299" t="s">
-        <v>82</v>
-      </c>
-      <c r="D299">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D299" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -4973,13 +5127,13 @@
         <v>118089908</v>
       </c>
       <c r="B300" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C300" t="s">
-        <v>82</v>
-      </c>
-      <c r="D300">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D300" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -4987,13 +5141,13 @@
         <v>118089909</v>
       </c>
       <c r="B301" t="s">
+        <v>80</v>
+      </c>
+      <c r="C301" t="s">
         <v>81</v>
       </c>
-      <c r="C301" t="s">
-        <v>82</v>
-      </c>
-      <c r="D301">
-        <v>1180899</v>
+      <c r="D301" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -5001,13 +5155,13 @@
         <v>118089910</v>
       </c>
       <c r="B302" t="s">
+        <v>80</v>
+      </c>
+      <c r="C302" t="s">
         <v>81</v>
       </c>
-      <c r="C302" t="s">
-        <v>82</v>
-      </c>
-      <c r="D302">
-        <v>1180899</v>
+      <c r="D302" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -5018,10 +5172,10 @@
         <v>74</v>
       </c>
       <c r="C303" t="s">
-        <v>84</v>
-      </c>
-      <c r="D303">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D303" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -5032,10 +5186,10 @@
         <v>74</v>
       </c>
       <c r="C304" t="s">
-        <v>84</v>
-      </c>
-      <c r="D304">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D304" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -5046,10 +5200,10 @@
         <v>74</v>
       </c>
       <c r="C305" t="s">
-        <v>84</v>
-      </c>
-      <c r="D305">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D305" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -5060,24 +5214,24 @@
         <v>74</v>
       </c>
       <c r="C306" t="s">
-        <v>84</v>
-      </c>
-      <c r="D306">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D306" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B307" t="s">
         <v>62</v>
       </c>
       <c r="C307" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D307" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -5088,10 +5242,10 @@
         <v>74</v>
       </c>
       <c r="C308" t="s">
-        <v>88</v>
-      </c>
-      <c r="D308">
-        <v>1182161</v>
+        <v>86</v>
+      </c>
+      <c r="D308" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -5102,10 +5256,10 @@
         <v>62</v>
       </c>
       <c r="C309" t="s">
-        <v>89</v>
-      </c>
-      <c r="D309">
-        <v>1180601</v>
+        <v>87</v>
+      </c>
+      <c r="D309" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -5116,10 +5270,10 @@
         <v>62</v>
       </c>
       <c r="C310" t="s">
-        <v>89</v>
-      </c>
-      <c r="D310">
-        <v>1180601</v>
+        <v>87</v>
+      </c>
+      <c r="D310" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -5127,13 +5281,13 @@
         <v>118170201</v>
       </c>
       <c r="B311" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C311" t="s">
-        <v>90</v>
-      </c>
-      <c r="D311">
-        <v>1181702</v>
+        <v>88</v>
+      </c>
+      <c r="D311" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -5141,13 +5295,13 @@
         <v>118170202</v>
       </c>
       <c r="B312" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C312" t="s">
-        <v>90</v>
-      </c>
-      <c r="D312">
-        <v>1181702</v>
+        <v>88</v>
+      </c>
+      <c r="D312" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -5158,10 +5312,10 @@
         <v>74</v>
       </c>
       <c r="C313" t="s">
-        <v>91</v>
-      </c>
-      <c r="D313">
-        <v>1180602</v>
+        <v>89</v>
+      </c>
+      <c r="D313" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -5172,10 +5326,10 @@
         <v>74</v>
       </c>
       <c r="C314" t="s">
-        <v>91</v>
-      </c>
-      <c r="D314">
-        <v>1180602</v>
+        <v>89</v>
+      </c>
+      <c r="D314" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -5183,13 +5337,13 @@
         <v>118170101</v>
       </c>
       <c r="B315" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C315" t="s">
-        <v>92</v>
-      </c>
-      <c r="D315">
-        <v>1181701</v>
+        <v>90</v>
+      </c>
+      <c r="D315" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -5197,13 +5351,13 @@
         <v>118170102</v>
       </c>
       <c r="B316" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C316" t="s">
-        <v>92</v>
-      </c>
-      <c r="D316">
-        <v>1181701</v>
+        <v>90</v>
+      </c>
+      <c r="D316" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -5216,8 +5370,8 @@
       <c r="C317" t="s">
         <v>75</v>
       </c>
-      <c r="D317">
-        <v>1180604</v>
+      <c r="D317" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -5230,8 +5384,8 @@
       <c r="C318" t="s">
         <v>75</v>
       </c>
-      <c r="D318">
-        <v>1180604</v>
+      <c r="D318" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -5245,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="D319" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,13 +5407,13 @@
         <v>118170401</v>
       </c>
       <c r="B320" t="s">
+        <v>78</v>
+      </c>
+      <c r="C320" t="s">
         <v>79</v>
       </c>
-      <c r="C320" t="s">
-        <v>80</v>
-      </c>
-      <c r="D320">
-        <v>1181704</v>
+      <c r="D320" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -5267,13 +5421,13 @@
         <v>118170402</v>
       </c>
       <c r="B321" t="s">
+        <v>78</v>
+      </c>
+      <c r="C321" t="s">
         <v>79</v>
       </c>
-      <c r="C321" t="s">
-        <v>80</v>
-      </c>
-      <c r="D321">
-        <v>1181704</v>
+      <c r="D321" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -5281,13 +5435,13 @@
         <v>118089901</v>
       </c>
       <c r="B322" t="s">
+        <v>80</v>
+      </c>
+      <c r="C322" t="s">
         <v>81</v>
       </c>
-      <c r="C322" t="s">
-        <v>82</v>
-      </c>
-      <c r="D322">
-        <v>1180899</v>
+      <c r="D322" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -5295,13 +5449,13 @@
         <v>118089902</v>
       </c>
       <c r="B323" t="s">
+        <v>80</v>
+      </c>
+      <c r="C323" t="s">
         <v>81</v>
       </c>
-      <c r="C323" t="s">
-        <v>82</v>
-      </c>
-      <c r="D323">
-        <v>1180899</v>
+      <c r="D323" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -5309,13 +5463,13 @@
         <v>118089903</v>
       </c>
       <c r="B324" t="s">
+        <v>80</v>
+      </c>
+      <c r="C324" t="s">
         <v>81</v>
       </c>
-      <c r="C324" t="s">
-        <v>82</v>
-      </c>
-      <c r="D324">
-        <v>1180899</v>
+      <c r="D324" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -5323,13 +5477,13 @@
         <v>118089904</v>
       </c>
       <c r="B325" t="s">
+        <v>80</v>
+      </c>
+      <c r="C325" t="s">
         <v>81</v>
       </c>
-      <c r="C325" t="s">
-        <v>82</v>
-      </c>
-      <c r="D325">
-        <v>1180899</v>
+      <c r="D325" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -5337,13 +5491,13 @@
         <v>118089905</v>
       </c>
       <c r="B326" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C326" t="s">
-        <v>82</v>
-      </c>
-      <c r="D326">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D326" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -5351,13 +5505,13 @@
         <v>118089906</v>
       </c>
       <c r="B327" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C327" t="s">
-        <v>82</v>
-      </c>
-      <c r="D327">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D327" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -5365,13 +5519,13 @@
         <v>118089907</v>
       </c>
       <c r="B328" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C328" t="s">
-        <v>82</v>
-      </c>
-      <c r="D328">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D328" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -5379,13 +5533,13 @@
         <v>118089908</v>
       </c>
       <c r="B329" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C329" t="s">
-        <v>82</v>
-      </c>
-      <c r="D329">
-        <v>1180899</v>
+        <v>81</v>
+      </c>
+      <c r="D329" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -5393,13 +5547,13 @@
         <v>118089909</v>
       </c>
       <c r="B330" t="s">
+        <v>80</v>
+      </c>
+      <c r="C330" t="s">
         <v>81</v>
       </c>
-      <c r="C330" t="s">
-        <v>82</v>
-      </c>
-      <c r="D330">
-        <v>1180899</v>
+      <c r="D330" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -5407,13 +5561,13 @@
         <v>118089910</v>
       </c>
       <c r="B331" t="s">
+        <v>80</v>
+      </c>
+      <c r="C331" t="s">
         <v>81</v>
       </c>
-      <c r="C331" t="s">
-        <v>82</v>
-      </c>
-      <c r="D331">
-        <v>1180899</v>
+      <c r="D331" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -5424,10 +5578,10 @@
         <v>74</v>
       </c>
       <c r="C332" t="s">
-        <v>84</v>
-      </c>
-      <c r="D332">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D332" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -5438,10 +5592,10 @@
         <v>74</v>
       </c>
       <c r="C333" t="s">
-        <v>84</v>
-      </c>
-      <c r="D333">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D333" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -5452,10 +5606,10 @@
         <v>74</v>
       </c>
       <c r="C334" t="s">
-        <v>84</v>
-      </c>
-      <c r="D334">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D334" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -5466,24 +5620,24 @@
         <v>74</v>
       </c>
       <c r="C335" t="s">
-        <v>84</v>
-      </c>
-      <c r="D335">
-        <v>1180601</v>
+        <v>83</v>
+      </c>
+      <c r="D335" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B336" t="s">
         <v>62</v>
       </c>
       <c r="C336" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D336" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -5494,10 +5648,10 @@
         <v>74</v>
       </c>
       <c r="C337" t="s">
-        <v>88</v>
-      </c>
-      <c r="D337">
-        <v>1182161</v>
+        <v>86</v>
+      </c>
+      <c r="D337" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -5508,10 +5662,10 @@
         <v>62</v>
       </c>
       <c r="C338" t="s">
-        <v>89</v>
-      </c>
-      <c r="D338">
-        <v>1180601</v>
+        <v>87</v>
+      </c>
+      <c r="D338" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -5522,10 +5676,10 @@
         <v>62</v>
       </c>
       <c r="C339" t="s">
-        <v>89</v>
-      </c>
-      <c r="D339">
-        <v>1180601</v>
+        <v>87</v>
+      </c>
+      <c r="D339" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -5533,13 +5687,13 @@
         <v>118170201</v>
       </c>
       <c r="B340" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C340" t="s">
-        <v>90</v>
-      </c>
-      <c r="D340">
-        <v>1181702</v>
+        <v>88</v>
+      </c>
+      <c r="D340" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -5547,13 +5701,13 @@
         <v>118170202</v>
       </c>
       <c r="B341" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C341" t="s">
-        <v>90</v>
-      </c>
-      <c r="D341">
-        <v>1181702</v>
+        <v>88</v>
+      </c>
+      <c r="D341" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -5564,10 +5718,10 @@
         <v>74</v>
       </c>
       <c r="C342" t="s">
-        <v>91</v>
-      </c>
-      <c r="D342">
-        <v>1180602</v>
+        <v>89</v>
+      </c>
+      <c r="D342" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -5578,10 +5732,10 @@
         <v>74</v>
       </c>
       <c r="C343" t="s">
-        <v>91</v>
-      </c>
-      <c r="D343">
-        <v>1180602</v>
+        <v>89</v>
+      </c>
+      <c r="D343" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -5589,13 +5743,13 @@
         <v>118170101</v>
       </c>
       <c r="B344" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C344" t="s">
-        <v>92</v>
-      </c>
-      <c r="D344">
-        <v>1181701</v>
+        <v>90</v>
+      </c>
+      <c r="D344" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -5603,13 +5757,13 @@
         <v>118170102</v>
       </c>
       <c r="B345" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C345" t="s">
-        <v>92</v>
-      </c>
-      <c r="D345">
-        <v>1181701</v>
+        <v>90</v>
+      </c>
+      <c r="D345" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -5617,13 +5771,13 @@
         <v>118039901</v>
       </c>
       <c r="B346" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C346" t="s">
-        <v>94</v>
-      </c>
-      <c r="D346">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D346" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -5631,13 +5785,13 @@
         <v>118039902</v>
       </c>
       <c r="B347" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C347" t="s">
-        <v>94</v>
-      </c>
-      <c r="D347">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D347" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -5645,13 +5799,13 @@
         <v>118039903</v>
       </c>
       <c r="B348" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C348" t="s">
-        <v>94</v>
-      </c>
-      <c r="D348">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D348" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -5659,13 +5813,13 @@
         <v>118039904</v>
       </c>
       <c r="B349" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C349" t="s">
-        <v>94</v>
-      </c>
-      <c r="D349">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D349" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -5676,10 +5830,10 @@
         <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>94</v>
-      </c>
-      <c r="D350">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D350" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -5690,10 +5844,10 @@
         <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>94</v>
-      </c>
-      <c r="D351">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D351" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -5704,10 +5858,10 @@
         <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>94</v>
-      </c>
-      <c r="D352">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D352" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -5718,10 +5872,10 @@
         <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>94</v>
-      </c>
-      <c r="D353">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D353" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -5732,10 +5886,10 @@
         <v>14</v>
       </c>
       <c r="C354" t="s">
-        <v>94</v>
-      </c>
-      <c r="D354">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D354" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -5746,10 +5900,10 @@
         <v>14</v>
       </c>
       <c r="C355" t="s">
-        <v>94</v>
-      </c>
-      <c r="D355">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D355" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -5757,13 +5911,13 @@
         <v>118230201</v>
       </c>
       <c r="B356" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C356" t="s">
         <v>17</v>
       </c>
-      <c r="D356">
-        <v>1182302</v>
+      <c r="D356" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -5771,13 +5925,13 @@
         <v>118230202</v>
       </c>
       <c r="B357" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C357" t="s">
         <v>17</v>
       </c>
-      <c r="D357">
-        <v>1182302</v>
+      <c r="D357" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -5785,13 +5939,13 @@
         <v>118230203</v>
       </c>
       <c r="B358" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C358" t="s">
         <v>17</v>
       </c>
-      <c r="D358">
-        <v>1182302</v>
+      <c r="D358" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -5799,13 +5953,13 @@
         <v>118230204</v>
       </c>
       <c r="B359" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C359" t="s">
         <v>17</v>
       </c>
-      <c r="D359">
-        <v>1182302</v>
+      <c r="D359" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -5813,13 +5967,13 @@
         <v>118030601</v>
       </c>
       <c r="B360" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C360" t="s">
         <v>13</v>
       </c>
-      <c r="D360">
-        <v>1180306</v>
+      <c r="D360" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -5827,13 +5981,13 @@
         <v>118030602</v>
       </c>
       <c r="B361" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C361" t="s">
         <v>13</v>
       </c>
-      <c r="D361">
-        <v>1180306</v>
+      <c r="D361" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -5841,13 +5995,13 @@
         <v>116030701</v>
       </c>
       <c r="B362" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C362" t="s">
         <v>7</v>
       </c>
-      <c r="D362">
-        <v>1160307</v>
+      <c r="D362" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -5855,13 +6009,13 @@
         <v>116030702</v>
       </c>
       <c r="B363" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
       </c>
-      <c r="D363">
-        <v>1160307</v>
+      <c r="D363" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -5869,13 +6023,13 @@
         <v>116030703</v>
       </c>
       <c r="B364" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C364" t="s">
         <v>7</v>
       </c>
-      <c r="D364">
-        <v>1160307</v>
+      <c r="D364" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -5883,13 +6037,13 @@
         <v>116030704</v>
       </c>
       <c r="B365" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C365" t="s">
         <v>7</v>
       </c>
-      <c r="D365">
-        <v>1160307</v>
+      <c r="D365" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -5902,8 +6056,8 @@
       <c r="C366" t="s">
         <v>5</v>
       </c>
-      <c r="D366">
-        <v>1160301</v>
+      <c r="D366" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -5916,8 +6070,8 @@
       <c r="C367" t="s">
         <v>5</v>
       </c>
-      <c r="D367">
-        <v>1160301</v>
+      <c r="D367" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -5925,13 +6079,13 @@
         <v>116030701</v>
       </c>
       <c r="B368" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C368" t="s">
         <v>7</v>
       </c>
-      <c r="D368">
-        <v>1160307</v>
+      <c r="D368" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -5939,13 +6093,13 @@
         <v>116030702</v>
       </c>
       <c r="B369" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C369" t="s">
         <v>7</v>
       </c>
-      <c r="D369">
-        <v>1160307</v>
+      <c r="D369" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -5953,13 +6107,13 @@
         <v>116030703</v>
       </c>
       <c r="B370" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C370" t="s">
         <v>7</v>
       </c>
-      <c r="D370">
-        <v>1160307</v>
+      <c r="D370" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -5967,13 +6121,13 @@
         <v>116030704</v>
       </c>
       <c r="B371" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C371" t="s">
         <v>7</v>
       </c>
-      <c r="D371">
-        <v>1160307</v>
+      <c r="D371" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -5986,8 +6140,8 @@
       <c r="C372" t="s">
         <v>5</v>
       </c>
-      <c r="D372">
-        <v>1160301</v>
+      <c r="D372" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -6000,8 +6154,8 @@
       <c r="C373" t="s">
         <v>5</v>
       </c>
-      <c r="D373">
-        <v>1160301</v>
+      <c r="D373" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -6009,13 +6163,13 @@
         <v>117080601</v>
       </c>
       <c r="B374" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C374" t="s">
-        <v>99</v>
-      </c>
-      <c r="D374">
-        <v>1170806</v>
+        <v>97</v>
+      </c>
+      <c r="D374" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -6023,13 +6177,13 @@
         <v>117080602</v>
       </c>
       <c r="B375" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C375" t="s">
-        <v>99</v>
-      </c>
-      <c r="D375">
-        <v>1170806</v>
+        <v>97</v>
+      </c>
+      <c r="D375" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -6037,13 +6191,13 @@
         <v>117080603</v>
       </c>
       <c r="B376" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C376" t="s">
-        <v>99</v>
-      </c>
-      <c r="D376">
-        <v>1170806</v>
+        <v>97</v>
+      </c>
+      <c r="D376" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -6056,8 +6210,8 @@
       <c r="C377" t="s">
         <v>7</v>
       </c>
-      <c r="D377">
-        <v>1160307</v>
+      <c r="D377" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -6070,8 +6224,8 @@
       <c r="C378" t="s">
         <v>7</v>
       </c>
-      <c r="D378">
-        <v>1160307</v>
+      <c r="D378" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -6084,8 +6238,8 @@
       <c r="C379" t="s">
         <v>7</v>
       </c>
-      <c r="D379">
-        <v>1160307</v>
+      <c r="D379" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -6098,8 +6252,8 @@
       <c r="C380" t="s">
         <v>7</v>
       </c>
-      <c r="D380">
-        <v>1160307</v>
+      <c r="D380" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -6107,13 +6261,13 @@
         <v>117060401</v>
       </c>
       <c r="B381" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C381" t="s">
         <v>75</v>
       </c>
-      <c r="D381">
-        <v>1170604</v>
+      <c r="D381" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -6121,13 +6275,13 @@
         <v>117060402</v>
       </c>
       <c r="B382" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C382" t="s">
         <v>75</v>
       </c>
-      <c r="D382">
-        <v>1170604</v>
+      <c r="D382" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -6135,13 +6289,13 @@
         <v>117170401</v>
       </c>
       <c r="B383" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C383" t="s">
-        <v>80</v>
-      </c>
-      <c r="D383">
-        <v>1171704</v>
+        <v>79</v>
+      </c>
+      <c r="D383" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -6149,13 +6303,13 @@
         <v>117170402</v>
       </c>
       <c r="B384" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C384" t="s">
-        <v>80</v>
-      </c>
-      <c r="D384">
-        <v>1171704</v>
+        <v>79</v>
+      </c>
+      <c r="D384" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -6163,13 +6317,13 @@
         <v>117060101</v>
       </c>
       <c r="B385" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C385" t="s">
-        <v>84</v>
-      </c>
-      <c r="D385">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D385" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -6177,13 +6331,13 @@
         <v>117060102</v>
       </c>
       <c r="B386" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C386" t="s">
-        <v>84</v>
-      </c>
-      <c r="D386">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D386" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -6191,13 +6345,13 @@
         <v>117060103</v>
       </c>
       <c r="B387" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C387" t="s">
-        <v>84</v>
-      </c>
-      <c r="D387">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D387" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -6205,13 +6359,13 @@
         <v>117060104</v>
       </c>
       <c r="B388" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C388" t="s">
-        <v>84</v>
-      </c>
-      <c r="D388">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D388" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -6219,13 +6373,13 @@
         <v>117060105</v>
       </c>
       <c r="B389" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C389" t="s">
-        <v>89</v>
-      </c>
-      <c r="D389">
-        <v>1170601</v>
+        <v>87</v>
+      </c>
+      <c r="D389" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -6233,13 +6387,13 @@
         <v>117060106</v>
       </c>
       <c r="B390" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C390" t="s">
-        <v>89</v>
-      </c>
-      <c r="D390">
-        <v>1170601</v>
+        <v>87</v>
+      </c>
+      <c r="D390" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -6247,13 +6401,13 @@
         <v>117081101</v>
       </c>
       <c r="B391" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C391" t="s">
-        <v>104</v>
-      </c>
-      <c r="D391">
-        <v>1170811</v>
+        <v>102</v>
+      </c>
+      <c r="D391" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -6261,13 +6415,13 @@
         <v>117081102</v>
       </c>
       <c r="B392" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C392" t="s">
-        <v>104</v>
-      </c>
-      <c r="D392">
-        <v>1170811</v>
+        <v>102</v>
+      </c>
+      <c r="D392" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -6275,13 +6429,13 @@
         <v>117060201</v>
       </c>
       <c r="B393" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C393" t="s">
-        <v>91</v>
-      </c>
-      <c r="D393">
-        <v>1170602</v>
+        <v>89</v>
+      </c>
+      <c r="D393" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -6289,13 +6443,13 @@
         <v>117060202</v>
       </c>
       <c r="B394" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C394" t="s">
-        <v>91</v>
-      </c>
-      <c r="D394">
-        <v>1170602</v>
+        <v>89</v>
+      </c>
+      <c r="D394" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -6303,13 +6457,13 @@
         <v>117080101</v>
       </c>
       <c r="B395" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C395" t="s">
-        <v>105</v>
-      </c>
-      <c r="D395">
-        <v>1170801</v>
+        <v>103</v>
+      </c>
+      <c r="D395" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -6317,13 +6471,13 @@
         <v>117080102</v>
       </c>
       <c r="B396" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C396" t="s">
-        <v>105</v>
-      </c>
-      <c r="D396">
-        <v>1170801</v>
+        <v>103</v>
+      </c>
+      <c r="D396" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -6331,13 +6485,13 @@
         <v>117060401</v>
       </c>
       <c r="B397" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C397" t="s">
         <v>75</v>
       </c>
-      <c r="D397">
-        <v>1170604</v>
+      <c r="D397" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -6345,13 +6499,13 @@
         <v>117060402</v>
       </c>
       <c r="B398" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C398" t="s">
         <v>75</v>
       </c>
-      <c r="D398">
-        <v>1170604</v>
+      <c r="D398" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -6359,13 +6513,13 @@
         <v>117170401</v>
       </c>
       <c r="B399" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C399" t="s">
-        <v>80</v>
-      </c>
-      <c r="D399">
-        <v>1171704</v>
+        <v>79</v>
+      </c>
+      <c r="D399" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -6373,13 +6527,13 @@
         <v>117170402</v>
       </c>
       <c r="B400" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C400" t="s">
-        <v>80</v>
-      </c>
-      <c r="D400">
-        <v>1171704</v>
+        <v>79</v>
+      </c>
+      <c r="D400" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -6387,13 +6541,13 @@
         <v>117060101</v>
       </c>
       <c r="B401" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C401" t="s">
-        <v>84</v>
-      </c>
-      <c r="D401">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D401" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -6401,13 +6555,13 @@
         <v>117060102</v>
       </c>
       <c r="B402" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C402" t="s">
-        <v>84</v>
-      </c>
-      <c r="D402">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D402" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6415,13 +6569,13 @@
         <v>117060103</v>
       </c>
       <c r="B403" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C403" t="s">
-        <v>84</v>
-      </c>
-      <c r="D403">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D403" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -6429,13 +6583,13 @@
         <v>117060104</v>
       </c>
       <c r="B404" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C404" t="s">
-        <v>84</v>
-      </c>
-      <c r="D404">
-        <v>1170601</v>
+        <v>83</v>
+      </c>
+      <c r="D404" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -6443,13 +6597,13 @@
         <v>117060105</v>
       </c>
       <c r="B405" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C405" t="s">
-        <v>89</v>
-      </c>
-      <c r="D405">
-        <v>1170601</v>
+        <v>87</v>
+      </c>
+      <c r="D405" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -6457,13 +6611,13 @@
         <v>117060106</v>
       </c>
       <c r="B406" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C406" t="s">
-        <v>89</v>
-      </c>
-      <c r="D406">
-        <v>1170601</v>
+        <v>87</v>
+      </c>
+      <c r="D406" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -6471,13 +6625,13 @@
         <v>117081101</v>
       </c>
       <c r="B407" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C407" t="s">
-        <v>104</v>
-      </c>
-      <c r="D407">
-        <v>1170811</v>
+        <v>102</v>
+      </c>
+      <c r="D407" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -6485,13 +6639,13 @@
         <v>117081102</v>
       </c>
       <c r="B408" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C408" t="s">
-        <v>104</v>
-      </c>
-      <c r="D408">
-        <v>1170811</v>
+        <v>102</v>
+      </c>
+      <c r="D408" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -6499,13 +6653,13 @@
         <v>117060201</v>
       </c>
       <c r="B409" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C409" t="s">
-        <v>91</v>
-      </c>
-      <c r="D409">
-        <v>1170602</v>
+        <v>89</v>
+      </c>
+      <c r="D409" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -6513,13 +6667,13 @@
         <v>117060202</v>
       </c>
       <c r="B410" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C410" t="s">
-        <v>91</v>
-      </c>
-      <c r="D410">
-        <v>1170602</v>
+        <v>89</v>
+      </c>
+      <c r="D410" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -6527,13 +6681,13 @@
         <v>117080101</v>
       </c>
       <c r="B411" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C411" t="s">
-        <v>105</v>
-      </c>
-      <c r="D411">
-        <v>1170801</v>
+        <v>103</v>
+      </c>
+      <c r="D411" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -6541,13 +6695,13 @@
         <v>117080102</v>
       </c>
       <c r="B412" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C412" t="s">
-        <v>105</v>
-      </c>
-      <c r="D412">
-        <v>1170801</v>
+        <v>103</v>
+      </c>
+      <c r="D412" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -6555,13 +6709,13 @@
         <v>116030101</v>
       </c>
       <c r="B413" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
       </c>
-      <c r="D413">
-        <v>1160301</v>
+      <c r="D413" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -6569,13 +6723,13 @@
         <v>116030102</v>
       </c>
       <c r="B414" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
       </c>
-      <c r="D414">
-        <v>1160301</v>
+      <c r="D414" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6583,13 +6737,13 @@
         <v>116030101</v>
       </c>
       <c r="B415" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
       </c>
-      <c r="D415">
-        <v>1160301</v>
+      <c r="D415" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6597,13 +6751,13 @@
         <v>116030102</v>
       </c>
       <c r="B416" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
       </c>
-      <c r="D416">
-        <v>1160301</v>
+      <c r="D416" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -6611,13 +6765,13 @@
         <v>117030901</v>
       </c>
       <c r="B417" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
-      <c r="D417">
-        <v>1170309</v>
+      <c r="D417" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -6625,13 +6779,13 @@
         <v>117030902</v>
       </c>
       <c r="B418" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
-      <c r="D418">
-        <v>1170309</v>
+      <c r="D418" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -6642,10 +6796,10 @@
         <v>49</v>
       </c>
       <c r="C419" t="s">
-        <v>80</v>
-      </c>
-      <c r="D419">
-        <v>1181704</v>
+        <v>79</v>
+      </c>
+      <c r="D419" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -6656,10 +6810,10 @@
         <v>49</v>
       </c>
       <c r="C420" t="s">
-        <v>80</v>
-      </c>
-      <c r="D420">
-        <v>1181704</v>
+        <v>79</v>
+      </c>
+      <c r="D420" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -6670,10 +6824,10 @@
         <v>49</v>
       </c>
       <c r="C421" t="s">
-        <v>80</v>
-      </c>
-      <c r="D421">
-        <v>1181704</v>
+        <v>79</v>
+      </c>
+      <c r="D421" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -6684,10 +6838,10 @@
         <v>49</v>
       </c>
       <c r="C422" t="s">
-        <v>80</v>
-      </c>
-      <c r="D422">
-        <v>1181704</v>
+        <v>79</v>
+      </c>
+      <c r="D422" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6695,13 +6849,13 @@
         <v>116030701</v>
       </c>
       <c r="B423" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C423" t="s">
         <v>7</v>
       </c>
-      <c r="D423">
-        <v>1160307</v>
+      <c r="D423" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6709,13 +6863,13 @@
         <v>116030702</v>
       </c>
       <c r="B424" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C424" t="s">
         <v>7</v>
       </c>
-      <c r="D424">
-        <v>1160307</v>
+      <c r="D424" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6728,8 +6882,8 @@
       <c r="C425" t="s">
         <v>7</v>
       </c>
-      <c r="D425">
-        <v>1160307</v>
+      <c r="D425" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6742,8 +6896,8 @@
       <c r="C426" t="s">
         <v>7</v>
       </c>
-      <c r="D426">
-        <v>1160307</v>
+      <c r="D426" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6751,13 +6905,13 @@
         <v>117030701</v>
       </c>
       <c r="B427" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C427" t="s">
         <v>7</v>
       </c>
-      <c r="D427">
-        <v>1170307</v>
+      <c r="D427" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6765,13 +6919,13 @@
         <v>117030702</v>
       </c>
       <c r="B428" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C428" t="s">
         <v>7</v>
       </c>
-      <c r="D428">
-        <v>1170307</v>
+      <c r="D428" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6784,8 +6938,8 @@
       <c r="C429" t="s">
         <v>7</v>
       </c>
-      <c r="D429">
-        <v>1170307</v>
+      <c r="D429" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6798,8 +6952,8 @@
       <c r="C430" t="s">
         <v>7</v>
       </c>
-      <c r="D430">
-        <v>1170307</v>
+      <c r="D430" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6810,10 +6964,10 @@
         <v>10</v>
       </c>
       <c r="C431" t="s">
-        <v>94</v>
-      </c>
-      <c r="D431">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D431" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6824,10 +6978,10 @@
         <v>10</v>
       </c>
       <c r="C432" t="s">
-        <v>94</v>
-      </c>
-      <c r="D432">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D432" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -6838,10 +6992,10 @@
         <v>10</v>
       </c>
       <c r="C433" t="s">
-        <v>94</v>
-      </c>
-      <c r="D433">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D433" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -6852,10 +7006,10 @@
         <v>10</v>
       </c>
       <c r="C434" t="s">
-        <v>94</v>
-      </c>
-      <c r="D434">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D434" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6866,10 +7020,10 @@
         <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>94</v>
-      </c>
-      <c r="D435">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D435" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6880,10 +7034,10 @@
         <v>9</v>
       </c>
       <c r="C436" t="s">
-        <v>94</v>
-      </c>
-      <c r="D436">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D436" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6894,10 +7048,10 @@
         <v>9</v>
       </c>
       <c r="C437" t="s">
-        <v>94</v>
-      </c>
-      <c r="D437">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D437" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6908,10 +7062,10 @@
         <v>9</v>
       </c>
       <c r="C438" t="s">
-        <v>94</v>
-      </c>
-      <c r="D438">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D438" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6922,10 +7076,10 @@
         <v>11</v>
       </c>
       <c r="C439" t="s">
-        <v>94</v>
-      </c>
-      <c r="D439">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D439" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6936,10 +7090,10 @@
         <v>11</v>
       </c>
       <c r="C440" t="s">
-        <v>94</v>
-      </c>
-      <c r="D440">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D440" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6952,8 +7106,8 @@
       <c r="C441" t="s">
         <v>8</v>
       </c>
-      <c r="D441">
-        <v>1160309</v>
+      <c r="D441" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6966,8 +7120,8 @@
       <c r="C442" t="s">
         <v>8</v>
       </c>
-      <c r="D442">
-        <v>1160309</v>
+      <c r="D442" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6980,8 +7134,8 @@
       <c r="C443" t="s">
         <v>8</v>
       </c>
-      <c r="D443">
-        <v>1170309</v>
+      <c r="D443" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6994,8 +7148,8 @@
       <c r="C444" t="s">
         <v>8</v>
       </c>
-      <c r="D444">
-        <v>1170309</v>
+      <c r="D444" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -7008,8 +7162,8 @@
       <c r="C445" t="s">
         <v>5</v>
       </c>
-      <c r="D445">
-        <v>1160301</v>
+      <c r="D445" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -7022,8 +7176,8 @@
       <c r="C446" t="s">
         <v>5</v>
       </c>
-      <c r="D446">
-        <v>1160301</v>
+      <c r="D446" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -7036,8 +7190,8 @@
       <c r="C447" t="s">
         <v>5</v>
       </c>
-      <c r="D447">
-        <v>1170301</v>
+      <c r="D447" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -7050,8 +7204,8 @@
       <c r="C448" t="s">
         <v>5</v>
       </c>
-      <c r="D448">
-        <v>1170301</v>
+      <c r="D448" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -7059,13 +7213,13 @@
         <v>117030701</v>
       </c>
       <c r="B449" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C449" t="s">
         <v>7</v>
       </c>
-      <c r="D449">
-        <v>1170307</v>
+      <c r="D449" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -7073,13 +7227,13 @@
         <v>117030702</v>
       </c>
       <c r="B450" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C450" t="s">
         <v>7</v>
       </c>
-      <c r="D450">
-        <v>1170307</v>
+      <c r="D450" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -7087,13 +7241,13 @@
         <v>117030703</v>
       </c>
       <c r="B451" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C451" t="s">
         <v>7</v>
       </c>
-      <c r="D451">
-        <v>1170307</v>
+      <c r="D451" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -7101,13 +7255,13 @@
         <v>117030704</v>
       </c>
       <c r="B452" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C452" t="s">
         <v>7</v>
       </c>
-      <c r="D452">
-        <v>1170307</v>
+      <c r="D452" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -7115,13 +7269,13 @@
         <v>118230201</v>
       </c>
       <c r="B453" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C453" t="s">
         <v>17</v>
       </c>
-      <c r="D453">
-        <v>1182302</v>
+      <c r="D453" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -7129,13 +7283,13 @@
         <v>118230202</v>
       </c>
       <c r="B454" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C454" t="s">
         <v>17</v>
       </c>
-      <c r="D454">
-        <v>1182302</v>
+      <c r="D454" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -7143,13 +7297,13 @@
         <v>118230203</v>
       </c>
       <c r="B455" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C455" t="s">
         <v>17</v>
       </c>
-      <c r="D455">
-        <v>1182302</v>
+      <c r="D455" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -7157,13 +7311,13 @@
         <v>118230204</v>
       </c>
       <c r="B456" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C456" t="s">
         <v>17</v>
       </c>
-      <c r="D456">
-        <v>1182302</v>
+      <c r="D456" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -7171,13 +7325,13 @@
         <v>118230101</v>
       </c>
       <c r="B457" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C457" t="s">
         <v>20</v>
       </c>
-      <c r="D457">
-        <v>1182301</v>
+      <c r="D457" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -7185,13 +7339,13 @@
         <v>118230102</v>
       </c>
       <c r="B458" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C458" t="s">
         <v>20</v>
       </c>
-      <c r="D458">
-        <v>1182301</v>
+      <c r="D458" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -7199,13 +7353,13 @@
         <v>117030101</v>
       </c>
       <c r="B459" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
       </c>
-      <c r="D459">
-        <v>1170301</v>
+      <c r="D459" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -7213,13 +7367,13 @@
         <v>117030102</v>
       </c>
       <c r="B460" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
       </c>
-      <c r="D460">
-        <v>1170301</v>
+      <c r="D460" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -7227,13 +7381,13 @@
         <v>117030701</v>
       </c>
       <c r="B461" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C461" t="s">
         <v>7</v>
       </c>
-      <c r="D461">
-        <v>1170307</v>
+      <c r="D461" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -7241,13 +7395,13 @@
         <v>117030702</v>
       </c>
       <c r="B462" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C462" t="s">
         <v>7</v>
       </c>
-      <c r="D462">
-        <v>1170307</v>
+      <c r="D462" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -7255,13 +7409,13 @@
         <v>117030703</v>
       </c>
       <c r="B463" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C463" t="s">
         <v>7</v>
       </c>
-      <c r="D463">
-        <v>1170307</v>
+      <c r="D463" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -7269,13 +7423,13 @@
         <v>117030704</v>
       </c>
       <c r="B464" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C464" t="s">
         <v>7</v>
       </c>
-      <c r="D464">
-        <v>1170307</v>
+      <c r="D464" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -7283,13 +7437,13 @@
         <v>118230201</v>
       </c>
       <c r="B465" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C465" t="s">
         <v>17</v>
       </c>
-      <c r="D465">
-        <v>1182302</v>
+      <c r="D465" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -7297,13 +7451,13 @@
         <v>118230202</v>
       </c>
       <c r="B466" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C466" t="s">
         <v>17</v>
       </c>
-      <c r="D466">
-        <v>1182302</v>
+      <c r="D466" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -7311,13 +7465,13 @@
         <v>118230203</v>
       </c>
       <c r="B467" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C467" t="s">
         <v>17</v>
       </c>
-      <c r="D467">
-        <v>1182302</v>
+      <c r="D467" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -7325,13 +7479,13 @@
         <v>118230204</v>
       </c>
       <c r="B468" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C468" t="s">
         <v>17</v>
       </c>
-      <c r="D468">
-        <v>1182302</v>
+      <c r="D468" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -7339,13 +7493,13 @@
         <v>118230101</v>
       </c>
       <c r="B469" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C469" t="s">
         <v>20</v>
       </c>
-      <c r="D469">
-        <v>1182301</v>
+      <c r="D469" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -7353,13 +7507,13 @@
         <v>118230102</v>
       </c>
       <c r="B470" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C470" t="s">
         <v>20</v>
       </c>
-      <c r="D470">
-        <v>1182301</v>
+      <c r="D470" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -7367,13 +7521,13 @@
         <v>117030101</v>
       </c>
       <c r="B471" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
       </c>
-      <c r="D471">
-        <v>1170301</v>
+      <c r="D471" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -7381,13 +7535,13 @@
         <v>117030102</v>
       </c>
       <c r="B472" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
       </c>
-      <c r="D472">
-        <v>1170301</v>
+      <c r="D472" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -7395,13 +7549,13 @@
         <v>117030701</v>
       </c>
       <c r="B473" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C473" t="s">
         <v>7</v>
       </c>
-      <c r="D473">
-        <v>1170307</v>
+      <c r="D473" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -7409,13 +7563,13 @@
         <v>117030702</v>
       </c>
       <c r="B474" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C474" t="s">
         <v>7</v>
       </c>
-      <c r="D474">
-        <v>1170307</v>
+      <c r="D474" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -7423,13 +7577,13 @@
         <v>117030703</v>
       </c>
       <c r="B475" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C475" t="s">
         <v>7</v>
       </c>
-      <c r="D475">
-        <v>1170307</v>
+      <c r="D475" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -7437,13 +7591,13 @@
         <v>117030704</v>
       </c>
       <c r="B476" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C476" t="s">
         <v>7</v>
       </c>
-      <c r="D476">
-        <v>1170307</v>
+      <c r="D476" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -7456,8 +7610,8 @@
       <c r="C477" t="s">
         <v>8</v>
       </c>
-      <c r="D477">
-        <v>1170309</v>
+      <c r="D477" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -7470,8 +7624,8 @@
       <c r="C478" t="s">
         <v>8</v>
       </c>
-      <c r="D478">
-        <v>1170309</v>
+      <c r="D478" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -7484,8 +7638,8 @@
       <c r="C479" t="s">
         <v>8</v>
       </c>
-      <c r="D479">
-        <v>1170309</v>
+      <c r="D479" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -7498,8 +7652,8 @@
       <c r="C480" t="s">
         <v>8</v>
       </c>
-      <c r="D480">
-        <v>1170309</v>
+      <c r="D480" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -7512,8 +7666,8 @@
       <c r="C481" t="s">
         <v>8</v>
       </c>
-      <c r="D481">
-        <v>1170309</v>
+      <c r="D481" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -7526,22 +7680,22 @@
       <c r="C482" t="s">
         <v>8</v>
       </c>
-      <c r="D482">
-        <v>1170309</v>
+      <c r="D482" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
+        <v>112</v>
+      </c>
+      <c r="B483" t="s">
+        <v>113</v>
+      </c>
+      <c r="C483" t="s">
         <v>114</v>
       </c>
-      <c r="B483" t="s">
-        <v>115</v>
-      </c>
-      <c r="C483" t="s">
-        <v>116</v>
-      </c>
-      <c r="D483">
-        <v>6201703</v>
+      <c r="D483" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -7549,13 +7703,13 @@
         <v>118039901</v>
       </c>
       <c r="B484" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C484" t="s">
-        <v>94</v>
-      </c>
-      <c r="D484">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D484" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -7563,13 +7717,13 @@
         <v>118039902</v>
       </c>
       <c r="B485" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C485" t="s">
-        <v>94</v>
-      </c>
-      <c r="D485">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D485" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -7577,13 +7731,13 @@
         <v>118039903</v>
       </c>
       <c r="B486" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C486" t="s">
-        <v>94</v>
-      </c>
-      <c r="D486">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D486" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -7591,13 +7745,13 @@
         <v>118039904</v>
       </c>
       <c r="B487" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C487" t="s">
-        <v>94</v>
-      </c>
-      <c r="D487">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D487" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -7608,10 +7762,10 @@
         <v>14</v>
       </c>
       <c r="C488" t="s">
-        <v>94</v>
-      </c>
-      <c r="D488">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D488" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -7622,10 +7776,10 @@
         <v>14</v>
       </c>
       <c r="C489" t="s">
-        <v>94</v>
-      </c>
-      <c r="D489">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D489" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -7636,10 +7790,10 @@
         <v>14</v>
       </c>
       <c r="C490" t="s">
-        <v>94</v>
-      </c>
-      <c r="D490">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D490" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -7650,10 +7804,10 @@
         <v>14</v>
       </c>
       <c r="C491" t="s">
-        <v>94</v>
-      </c>
-      <c r="D491">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D491" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -7664,10 +7818,10 @@
         <v>4</v>
       </c>
       <c r="C492" t="s">
-        <v>94</v>
-      </c>
-      <c r="D492">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D492" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -7678,10 +7832,10 @@
         <v>4</v>
       </c>
       <c r="C493" t="s">
-        <v>94</v>
-      </c>
-      <c r="D493">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D493" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -7689,13 +7843,13 @@
         <v>118230101</v>
       </c>
       <c r="B494" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C494" t="s">
         <v>20</v>
       </c>
-      <c r="D494">
-        <v>1182301</v>
+      <c r="D494" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7703,27 +7857,27 @@
         <v>118230102</v>
       </c>
       <c r="B495" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C495" t="s">
         <v>20</v>
       </c>
-      <c r="D495">
-        <v>1182301</v>
+      <c r="D495" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
+        <v>112</v>
+      </c>
+      <c r="B496" t="s">
+        <v>113</v>
+      </c>
+      <c r="C496" t="s">
         <v>114</v>
       </c>
-      <c r="B496" t="s">
-        <v>115</v>
-      </c>
-      <c r="C496" t="s">
-        <v>116</v>
-      </c>
-      <c r="D496">
-        <v>6201703</v>
+      <c r="D496" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -7731,13 +7885,13 @@
         <v>118039901</v>
       </c>
       <c r="B497" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C497" t="s">
-        <v>94</v>
-      </c>
-      <c r="D497">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D497" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -7745,13 +7899,13 @@
         <v>118039902</v>
       </c>
       <c r="B498" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C498" t="s">
-        <v>94</v>
-      </c>
-      <c r="D498">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D498" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -7759,13 +7913,13 @@
         <v>118039903</v>
       </c>
       <c r="B499" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C499" t="s">
-        <v>94</v>
-      </c>
-      <c r="D499">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D499" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -7773,13 +7927,13 @@
         <v>118039904</v>
       </c>
       <c r="B500" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C500" t="s">
-        <v>94</v>
-      </c>
-      <c r="D500">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D500" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7790,10 +7944,10 @@
         <v>14</v>
       </c>
       <c r="C501" t="s">
-        <v>94</v>
-      </c>
-      <c r="D501">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D501" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -7804,10 +7958,10 @@
         <v>14</v>
       </c>
       <c r="C502" t="s">
-        <v>94</v>
-      </c>
-      <c r="D502">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D502" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -7818,10 +7972,10 @@
         <v>14</v>
       </c>
       <c r="C503" t="s">
-        <v>94</v>
-      </c>
-      <c r="D503">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D503" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -7832,10 +7986,10 @@
         <v>14</v>
       </c>
       <c r="C504" t="s">
-        <v>94</v>
-      </c>
-      <c r="D504">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D504" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -7846,10 +8000,10 @@
         <v>4</v>
       </c>
       <c r="C505" t="s">
-        <v>94</v>
-      </c>
-      <c r="D505">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D505" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -7860,10 +8014,10 @@
         <v>4</v>
       </c>
       <c r="C506" t="s">
-        <v>94</v>
-      </c>
-      <c r="D506">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D506" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -7871,13 +8025,13 @@
         <v>118230101</v>
       </c>
       <c r="B507" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C507" t="s">
         <v>20</v>
       </c>
-      <c r="D507">
-        <v>1182301</v>
+      <c r="D507" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -7885,13 +8039,13 @@
         <v>118230102</v>
       </c>
       <c r="B508" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C508" t="s">
         <v>20</v>
       </c>
-      <c r="D508">
-        <v>1182301</v>
+      <c r="D508" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -7899,13 +8053,13 @@
         <v>118030601</v>
       </c>
       <c r="B509" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C509" t="s">
         <v>13</v>
       </c>
-      <c r="D509">
-        <v>1180306</v>
+      <c r="D509" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -7913,13 +8067,13 @@
         <v>118030602</v>
       </c>
       <c r="B510" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C510" t="s">
         <v>13</v>
       </c>
-      <c r="D510">
-        <v>1180306</v>
+      <c r="D510" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -7927,13 +8081,13 @@
         <v>118030601</v>
       </c>
       <c r="B511" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C511" t="s">
         <v>13</v>
       </c>
-      <c r="D511">
-        <v>1180306</v>
+      <c r="D511" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -7941,13 +8095,13 @@
         <v>118030602</v>
       </c>
       <c r="B512" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C512" t="s">
         <v>13</v>
       </c>
-      <c r="D512">
-        <v>1180306</v>
+      <c r="D512" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -7955,13 +8109,13 @@
         <v>118030601</v>
       </c>
       <c r="B513" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C513" t="s">
         <v>13</v>
       </c>
-      <c r="D513">
-        <v>1180306</v>
+      <c r="D513" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
@@ -7969,13 +8123,13 @@
         <v>118030602</v>
       </c>
       <c r="B514" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C514" t="s">
         <v>13</v>
       </c>
-      <c r="D514">
-        <v>1180306</v>
+      <c r="D514" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
@@ -7983,13 +8137,13 @@
         <v>118039901</v>
       </c>
       <c r="B515" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C515" t="s">
-        <v>94</v>
-      </c>
-      <c r="D515">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D515" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
@@ -7997,13 +8151,13 @@
         <v>118039902</v>
       </c>
       <c r="B516" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C516" t="s">
-        <v>94</v>
-      </c>
-      <c r="D516">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D516" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
@@ -8011,13 +8165,13 @@
         <v>118039903</v>
       </c>
       <c r="B517" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C517" t="s">
-        <v>94</v>
-      </c>
-      <c r="D517">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D517" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
@@ -8025,13 +8179,13 @@
         <v>118039904</v>
       </c>
       <c r="B518" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C518" t="s">
-        <v>94</v>
-      </c>
-      <c r="D518">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D518" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
@@ -8042,10 +8196,10 @@
         <v>14</v>
       </c>
       <c r="C519" t="s">
-        <v>94</v>
-      </c>
-      <c r="D519">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D519" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
@@ -8056,10 +8210,10 @@
         <v>14</v>
       </c>
       <c r="C520" t="s">
-        <v>94</v>
-      </c>
-      <c r="D520">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D520" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
@@ -8070,10 +8224,10 @@
         <v>14</v>
       </c>
       <c r="C521" t="s">
-        <v>94</v>
-      </c>
-      <c r="D521">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D521" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
@@ -8084,10 +8238,10 @@
         <v>14</v>
       </c>
       <c r="C522" t="s">
-        <v>94</v>
-      </c>
-      <c r="D522">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D522" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -8098,10 +8252,10 @@
         <v>4</v>
       </c>
       <c r="C523" t="s">
-        <v>94</v>
-      </c>
-      <c r="D523">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D523" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,24 +8266,24 @@
         <v>4</v>
       </c>
       <c r="C524" t="s">
-        <v>94</v>
-      </c>
-      <c r="D524">
-        <v>1180399</v>
+        <v>92</v>
+      </c>
+      <c r="D524" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
+        <v>112</v>
+      </c>
+      <c r="B525" t="s">
+        <v>113</v>
+      </c>
+      <c r="C525" t="s">
         <v>114</v>
       </c>
-      <c r="B525" t="s">
-        <v>115</v>
-      </c>
-      <c r="C525" t="s">
-        <v>116</v>
-      </c>
-      <c r="D525">
-        <v>6201703</v>
+      <c r="D525" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
@@ -8142,8 +8296,8 @@
       <c r="C526" t="s">
         <v>5</v>
       </c>
-      <c r="D526">
-        <v>1170301</v>
+      <c r="D526" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
@@ -8156,8 +8310,8 @@
       <c r="C527" t="s">
         <v>5</v>
       </c>
-      <c r="D527">
-        <v>1170301</v>
+      <c r="D527" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
@@ -8170,8 +8324,8 @@
       <c r="C528" t="s">
         <v>5</v>
       </c>
-      <c r="D528">
-        <v>1170301</v>
+      <c r="D528" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,8 +8338,8 @@
       <c r="C529" t="s">
         <v>5</v>
       </c>
-      <c r="D529">
-        <v>1170301</v>
+      <c r="D529" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
@@ -8193,13 +8347,13 @@
         <v>116030601</v>
       </c>
       <c r="B530" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C530" t="s">
         <v>13</v>
       </c>
-      <c r="D530">
-        <v>1160306</v>
+      <c r="D530" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
@@ -8207,13 +8361,13 @@
         <v>116030602</v>
       </c>
       <c r="B531" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C531" t="s">
         <v>13</v>
       </c>
-      <c r="D531">
-        <v>1160306</v>
+      <c r="D531" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
@@ -8221,13 +8375,13 @@
         <v>116030601</v>
       </c>
       <c r="B532" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C532" t="s">
         <v>13</v>
       </c>
-      <c r="D532">
-        <v>1160306</v>
+      <c r="D532" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
@@ -8235,41 +8389,41 @@
         <v>116030602</v>
       </c>
       <c r="B533" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C533" t="s">
         <v>13</v>
       </c>
-      <c r="D533">
-        <v>1160306</v>
+      <c r="D533" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
+        <v>112</v>
+      </c>
+      <c r="B534" t="s">
+        <v>118</v>
+      </c>
+      <c r="C534" t="s">
         <v>114</v>
       </c>
-      <c r="B534" t="s">
-        <v>120</v>
-      </c>
-      <c r="C534" t="s">
-        <v>116</v>
-      </c>
-      <c r="D534">
-        <v>6201703</v>
+      <c r="D534" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
+        <v>112</v>
+      </c>
+      <c r="B535" t="s">
+        <v>118</v>
+      </c>
+      <c r="C535" t="s">
         <v>114</v>
       </c>
-      <c r="B535" t="s">
-        <v>120</v>
-      </c>
-      <c r="C535" t="s">
-        <v>116</v>
-      </c>
-      <c r="D535">
-        <v>6201703</v>
+      <c r="D535" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
@@ -8277,13 +8431,13 @@
         <v>117030101</v>
       </c>
       <c r="B536" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
       </c>
-      <c r="D536">
-        <v>1170301</v>
+      <c r="D536" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
@@ -8291,13 +8445,13 @@
         <v>117030102</v>
       </c>
       <c r="B537" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
       </c>
-      <c r="D537">
-        <v>1170301</v>
+      <c r="D537" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
@@ -8305,13 +8459,13 @@
         <v>117030101</v>
       </c>
       <c r="B538" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
       </c>
-      <c r="D538">
-        <v>1170301</v>
+      <c r="D538" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
@@ -8319,13 +8473,13 @@
         <v>117030102</v>
       </c>
       <c r="B539" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
       </c>
-      <c r="D539">
-        <v>1170301</v>
+      <c r="D539" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
@@ -8333,13 +8487,13 @@
         <v>117030801</v>
       </c>
       <c r="B540" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C540" t="s">
         <v>17</v>
       </c>
-      <c r="D540">
-        <v>1170308</v>
+      <c r="D540" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
@@ -8347,13 +8501,13 @@
         <v>117030802</v>
       </c>
       <c r="B541" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C541" t="s">
         <v>17</v>
       </c>
-      <c r="D541">
-        <v>1170308</v>
+      <c r="D541" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
@@ -8361,13 +8515,13 @@
         <v>117030803</v>
       </c>
       <c r="B542" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C542" t="s">
         <v>17</v>
       </c>
-      <c r="D542">
-        <v>1170308</v>
+      <c r="D542" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
@@ -8375,13 +8529,13 @@
         <v>117030804</v>
       </c>
       <c r="B543" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C543" t="s">
         <v>17</v>
       </c>
-      <c r="D543">
-        <v>1170308</v>
+      <c r="D543" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
@@ -8389,13 +8543,13 @@
         <v>117010801</v>
       </c>
       <c r="B544" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C544" t="s">
         <v>20</v>
       </c>
-      <c r="D544">
-        <v>1170108</v>
+      <c r="D544" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
@@ -8403,13 +8557,13 @@
         <v>117010802</v>
       </c>
       <c r="B545" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C545" t="s">
         <v>20</v>
       </c>
-      <c r="D545">
-        <v>1170108</v>
+      <c r="D545" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
@@ -8417,13 +8571,13 @@
         <v>117030601</v>
       </c>
       <c r="B546" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C546" t="s">
         <v>13</v>
       </c>
-      <c r="D546">
-        <v>1170306</v>
+      <c r="D546" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
@@ -8431,13 +8585,13 @@
         <v>117030602</v>
       </c>
       <c r="B547" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C547" t="s">
         <v>13</v>
       </c>
-      <c r="D547">
-        <v>1170306</v>
+      <c r="D547" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
@@ -8445,13 +8599,13 @@
         <v>117030801</v>
       </c>
       <c r="B548" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C548" t="s">
         <v>17</v>
       </c>
-      <c r="D548">
-        <v>1170308</v>
+      <c r="D548" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
@@ -8459,13 +8613,13 @@
         <v>117030802</v>
       </c>
       <c r="B549" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C549" t="s">
         <v>17</v>
       </c>
-      <c r="D549">
-        <v>1170308</v>
+      <c r="D549" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
@@ -8473,13 +8627,13 @@
         <v>117030803</v>
       </c>
       <c r="B550" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C550" t="s">
         <v>17</v>
       </c>
-      <c r="D550">
-        <v>1170308</v>
+      <c r="D550" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
@@ -8487,13 +8641,13 @@
         <v>117030804</v>
       </c>
       <c r="B551" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C551" t="s">
         <v>17</v>
       </c>
-      <c r="D551">
-        <v>1170308</v>
+      <c r="D551" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
@@ -8501,13 +8655,13 @@
         <v>117010801</v>
       </c>
       <c r="B552" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C552" t="s">
         <v>20</v>
       </c>
-      <c r="D552">
-        <v>1170108</v>
+      <c r="D552" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
@@ -8515,13 +8669,13 @@
         <v>117010802</v>
       </c>
       <c r="B553" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C553" t="s">
         <v>20</v>
       </c>
-      <c r="D553">
-        <v>1170108</v>
+      <c r="D553" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
@@ -8529,13 +8683,13 @@
         <v>117030601</v>
       </c>
       <c r="B554" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C554" t="s">
         <v>13</v>
       </c>
-      <c r="D554">
-        <v>1170306</v>
+      <c r="D554" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
@@ -8543,13 +8697,13 @@
         <v>117030602</v>
       </c>
       <c r="B555" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C555" t="s">
         <v>13</v>
       </c>
-      <c r="D555">
-        <v>1170306</v>
+      <c r="D555" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
@@ -8560,10 +8714,10 @@
         <v>19</v>
       </c>
       <c r="C556" t="s">
-        <v>80</v>
-      </c>
-      <c r="D556">
-        <v>1171704</v>
+        <v>79</v>
+      </c>
+      <c r="D556" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
@@ -8574,10 +8728,10 @@
         <v>19</v>
       </c>
       <c r="C557" t="s">
-        <v>80</v>
-      </c>
-      <c r="D557">
-        <v>1171704</v>
+        <v>79</v>
+      </c>
+      <c r="D557" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
@@ -8585,13 +8739,13 @@
         <v>116030901</v>
       </c>
       <c r="B558" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C558" t="s">
         <v>8</v>
       </c>
-      <c r="D558">
-        <v>1160309</v>
+      <c r="D558" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
@@ -8599,13 +8753,13 @@
         <v>116030902</v>
       </c>
       <c r="B559" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C559" t="s">
         <v>8</v>
       </c>
-      <c r="D559">
-        <v>1160309</v>
+      <c r="D559" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,13 +8767,13 @@
         <v>116030901</v>
       </c>
       <c r="B560" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C560" t="s">
         <v>8</v>
       </c>
-      <c r="D560">
-        <v>1160309</v>
+      <c r="D560" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
@@ -8627,13 +8781,13 @@
         <v>116030902</v>
       </c>
       <c r="B561" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C561" t="s">
         <v>8</v>
       </c>
-      <c r="D561">
-        <v>1160309</v>
+      <c r="D561" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
@@ -8641,13 +8795,13 @@
         <v>116030901</v>
       </c>
       <c r="B562" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C562" t="s">
         <v>8</v>
       </c>
-      <c r="D562">
-        <v>1160309</v>
+      <c r="D562" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
@@ -8655,13 +8809,13 @@
         <v>116030902</v>
       </c>
       <c r="B563" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C563" t="s">
         <v>8</v>
       </c>
-      <c r="D563">
-        <v>1160309</v>
+      <c r="D563" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
@@ -8669,13 +8823,13 @@
         <v>117030801</v>
       </c>
       <c r="B564" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C564" t="s">
         <v>17</v>
       </c>
-      <c r="D564">
-        <v>1170308</v>
+      <c r="D564" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
@@ -8683,13 +8837,13 @@
         <v>117030802</v>
       </c>
       <c r="B565" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C565" t="s">
         <v>17</v>
       </c>
-      <c r="D565">
-        <v>1170308</v>
+      <c r="D565" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
@@ -8697,13 +8851,13 @@
         <v>117030803</v>
       </c>
       <c r="B566" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C566" t="s">
         <v>17</v>
       </c>
-      <c r="D566">
-        <v>1170308</v>
+      <c r="D566" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
@@ -8711,13 +8865,13 @@
         <v>117030804</v>
       </c>
       <c r="B567" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C567" t="s">
         <v>17</v>
       </c>
-      <c r="D567">
-        <v>1170308</v>
+      <c r="D567" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
@@ -8725,13 +8879,13 @@
         <v>117030901</v>
       </c>
       <c r="B568" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C568" t="s">
         <v>8</v>
       </c>
-      <c r="D568">
-        <v>1170309</v>
+      <c r="D568" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
@@ -8739,13 +8893,13 @@
         <v>117030902</v>
       </c>
       <c r="B569" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C569" t="s">
         <v>8</v>
       </c>
-      <c r="D569">
-        <v>1170309</v>
+      <c r="D569" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
@@ -8753,13 +8907,13 @@
         <v>117030901</v>
       </c>
       <c r="B570" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C570" t="s">
         <v>8</v>
       </c>
-      <c r="D570">
-        <v>1170309</v>
+      <c r="D570" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
@@ -8767,55 +8921,55 @@
         <v>117030902</v>
       </c>
       <c r="B571" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C571" t="s">
         <v>8</v>
       </c>
-      <c r="D571">
-        <v>1170309</v>
+      <c r="D571" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
+        <v>112</v>
+      </c>
+      <c r="B572" t="s">
+        <v>124</v>
+      </c>
+      <c r="C572" t="s">
         <v>114</v>
       </c>
-      <c r="B572" t="s">
-        <v>126</v>
-      </c>
-      <c r="C572" t="s">
-        <v>116</v>
-      </c>
-      <c r="D572">
-        <v>6201703</v>
+      <c r="D572" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
+        <v>112</v>
+      </c>
+      <c r="B573" t="s">
+        <v>124</v>
+      </c>
+      <c r="C573" t="s">
         <v>114</v>
       </c>
-      <c r="B573" t="s">
-        <v>126</v>
-      </c>
-      <c r="C573" t="s">
-        <v>116</v>
-      </c>
-      <c r="D573">
-        <v>6201703</v>
+      <c r="D573" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
+        <v>112</v>
+      </c>
+      <c r="B574" t="s">
+        <v>124</v>
+      </c>
+      <c r="C574" t="s">
         <v>114</v>
       </c>
-      <c r="B574" t="s">
-        <v>126</v>
-      </c>
-      <c r="C574" t="s">
-        <v>116</v>
-      </c>
-      <c r="D574">
-        <v>6201703</v>
+      <c r="D574" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
@@ -8828,8 +8982,8 @@
       <c r="C575" t="s">
         <v>5</v>
       </c>
-      <c r="D575">
-        <v>1160301</v>
+      <c r="D575" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
@@ -8842,8 +8996,8 @@
       <c r="C576" t="s">
         <v>5</v>
       </c>
-      <c r="D576">
-        <v>1160301</v>
+      <c r="D576" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
@@ -8856,8 +9010,8 @@
       <c r="C577" t="s">
         <v>5</v>
       </c>
-      <c r="D577">
-        <v>1160301</v>
+      <c r="D577" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
@@ -8870,8 +9024,8 @@
       <c r="C578" t="s">
         <v>5</v>
       </c>
-      <c r="D578">
-        <v>1160301</v>
+      <c r="D578" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
@@ -8879,13 +9033,13 @@
         <v>117030101</v>
       </c>
       <c r="B579" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
       </c>
-      <c r="D579">
-        <v>1170301</v>
+      <c r="D579" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
@@ -8893,13 +9047,13 @@
         <v>117030102</v>
       </c>
       <c r="B580" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
       </c>
-      <c r="D580">
-        <v>1170301</v>
+      <c r="D580" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
@@ -8907,13 +9061,13 @@
         <v>117030101</v>
       </c>
       <c r="B581" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
       </c>
-      <c r="D581">
-        <v>1170301</v>
+      <c r="D581" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
@@ -8921,13 +9075,13 @@
         <v>117030102</v>
       </c>
       <c r="B582" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
       </c>
-      <c r="D582">
-        <v>1170301</v>
+      <c r="D582" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
@@ -8935,13 +9089,13 @@
         <v>117030101</v>
       </c>
       <c r="B583" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
       </c>
-      <c r="D583">
-        <v>1170301</v>
+      <c r="D583" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
@@ -8949,13 +9103,13 @@
         <v>117030102</v>
       </c>
       <c r="B584" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
       </c>
-      <c r="D584">
-        <v>1170301</v>
+      <c r="D584" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
@@ -8968,8 +9122,8 @@
       <c r="C585" t="s">
         <v>5</v>
       </c>
-      <c r="D585">
-        <v>1160301</v>
+      <c r="D585" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
@@ -8982,8 +9136,8 @@
       <c r="C586" t="s">
         <v>5</v>
       </c>
-      <c r="D586">
-        <v>1160301</v>
+      <c r="D586" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
@@ -8996,8 +9150,8 @@
       <c r="C587" t="s">
         <v>5</v>
       </c>
-      <c r="D587">
-        <v>1160301</v>
+      <c r="D587" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.2">
@@ -9010,8 +9164,8 @@
       <c r="C588" t="s">
         <v>5</v>
       </c>
-      <c r="D588">
-        <v>1160301</v>
+      <c r="D588" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
@@ -9024,8 +9178,8 @@
       <c r="C589" t="s">
         <v>5</v>
       </c>
-      <c r="D589">
-        <v>1160301</v>
+      <c r="D589" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
@@ -9038,8 +9192,8 @@
       <c r="C590" t="s">
         <v>5</v>
       </c>
-      <c r="D590">
-        <v>1160301</v>
+      <c r="D590" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
@@ -9047,13 +9201,13 @@
         <v>116030901</v>
       </c>
       <c r="B591" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C591" t="s">
         <v>8</v>
       </c>
-      <c r="D591">
-        <v>1160309</v>
+      <c r="D591" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
@@ -9061,13 +9215,13 @@
         <v>116030902</v>
       </c>
       <c r="B592" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C592" t="s">
         <v>8</v>
       </c>
-      <c r="D592">
-        <v>1160309</v>
+      <c r="D592" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
@@ -9075,13 +9229,13 @@
         <v>116030901</v>
       </c>
       <c r="B593" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C593" t="s">
         <v>8</v>
       </c>
-      <c r="D593">
-        <v>1160309</v>
+      <c r="D593" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
@@ -9089,13 +9243,13 @@
         <v>116030902</v>
       </c>
       <c r="B594" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C594" t="s">
         <v>8</v>
       </c>
-      <c r="D594">
-        <v>1160309</v>
+      <c r="D594" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
@@ -9103,13 +9257,13 @@
         <v>116030601</v>
       </c>
       <c r="B595" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C595" t="s">
         <v>13</v>
       </c>
-      <c r="D595">
-        <v>1160306</v>
+      <c r="D595" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
@@ -9117,13 +9271,13 @@
         <v>116030602</v>
       </c>
       <c r="B596" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C596" t="s">
         <v>13</v>
       </c>
-      <c r="D596">
-        <v>1160306</v>
+      <c r="D596" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
@@ -9131,13 +9285,13 @@
         <v>117030601</v>
       </c>
       <c r="B597" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C597" t="s">
         <v>13</v>
       </c>
-      <c r="D597">
-        <v>1170306</v>
+      <c r="D597" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
@@ -9145,13 +9299,13 @@
         <v>117030602</v>
       </c>
       <c r="B598" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C598" t="s">
         <v>13</v>
       </c>
-      <c r="D598">
-        <v>1170306</v>
+      <c r="D598" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
@@ -9159,13 +9313,13 @@
         <v>118030601</v>
       </c>
       <c r="B599" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C599" t="s">
         <v>13</v>
       </c>
-      <c r="D599">
-        <v>1180306</v>
+      <c r="D599" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
@@ -9173,13 +9327,13 @@
         <v>118030602</v>
       </c>
       <c r="B600" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C600" t="s">
         <v>13</v>
       </c>
-      <c r="D600">
-        <v>1180306</v>
+      <c r="D600" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
@@ -9187,13 +9341,13 @@
         <v>116030601</v>
       </c>
       <c r="B601" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C601" t="s">
         <v>13</v>
       </c>
-      <c r="D601">
-        <v>1160306</v>
+      <c r="D601" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
@@ -9201,13 +9355,13 @@
         <v>116030602</v>
       </c>
       <c r="B602" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C602" t="s">
         <v>13</v>
       </c>
-      <c r="D602">
-        <v>1160306</v>
+      <c r="D602" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
@@ -9215,13 +9369,13 @@
         <v>116030601</v>
       </c>
       <c r="B603" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C603" t="s">
         <v>13</v>
       </c>
-      <c r="D603">
-        <v>1160306</v>
+      <c r="D603" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
@@ -9229,13 +9383,13 @@
         <v>116030602</v>
       </c>
       <c r="B604" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C604" t="s">
         <v>13</v>
       </c>
-      <c r="D604">
-        <v>1160306</v>
+      <c r="D604" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
@@ -9243,13 +9397,13 @@
         <v>116030601</v>
       </c>
       <c r="B605" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C605" t="s">
         <v>13</v>
       </c>
-      <c r="D605">
-        <v>1160306</v>
+      <c r="D605" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
@@ -9257,13 +9411,13 @@
         <v>116030602</v>
       </c>
       <c r="B606" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C606" t="s">
         <v>13</v>
       </c>
-      <c r="D606">
-        <v>1160306</v>
+      <c r="D606" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
@@ -9271,13 +9425,13 @@
         <v>116030601</v>
       </c>
       <c r="B607" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C607" t="s">
         <v>13</v>
       </c>
-      <c r="D607">
-        <v>1160306</v>
+      <c r="D607" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
@@ -9285,13 +9439,13 @@
         <v>116030602</v>
       </c>
       <c r="B608" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C608" t="s">
         <v>13</v>
       </c>
-      <c r="D608">
-        <v>1160306</v>
+      <c r="D608" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
@@ -9299,13 +9453,13 @@
         <v>117030601</v>
       </c>
       <c r="B609" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C609" t="s">
         <v>13</v>
       </c>
-      <c r="D609">
-        <v>1170306</v>
+      <c r="D609" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
@@ -9313,13 +9467,13 @@
         <v>117030602</v>
       </c>
       <c r="B610" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C610" t="s">
         <v>13</v>
       </c>
-      <c r="D610">
-        <v>1170306</v>
+      <c r="D610" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
@@ -9327,13 +9481,13 @@
         <v>117030601</v>
       </c>
       <c r="B611" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C611" t="s">
         <v>13</v>
       </c>
-      <c r="D611">
-        <v>1170306</v>
+      <c r="D611" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
@@ -9341,13 +9495,13 @@
         <v>117030602</v>
       </c>
       <c r="B612" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C612" t="s">
         <v>13</v>
       </c>
-      <c r="D612">
-        <v>1170306</v>
+      <c r="D612" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
@@ -9355,13 +9509,13 @@
         <v>117030601</v>
       </c>
       <c r="B613" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C613" t="s">
         <v>13</v>
       </c>
-      <c r="D613">
-        <v>1170306</v>
+      <c r="D613" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
@@ -9369,13 +9523,13 @@
         <v>117030602</v>
       </c>
       <c r="B614" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C614" t="s">
         <v>13</v>
       </c>
-      <c r="D614">
-        <v>1170306</v>
+      <c r="D614" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
@@ -9383,13 +9537,13 @@
         <v>117030601</v>
       </c>
       <c r="B615" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C615" t="s">
         <v>13</v>
       </c>
-      <c r="D615">
-        <v>1170306</v>
+      <c r="D615" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
@@ -9397,13 +9551,13 @@
         <v>117030602</v>
       </c>
       <c r="B616" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C616" t="s">
         <v>13</v>
       </c>
-      <c r="D616">
-        <v>1170306</v>
+      <c r="D616" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
@@ -9411,13 +9565,13 @@
         <v>117030601</v>
       </c>
       <c r="B617" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C617" t="s">
         <v>13</v>
       </c>
-      <c r="D617">
-        <v>1170306</v>
+      <c r="D617" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
@@ -9425,13 +9579,13 @@
         <v>117030602</v>
       </c>
       <c r="B618" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C618" t="s">
         <v>13</v>
       </c>
-      <c r="D618">
-        <v>1170306</v>
+      <c r="D618" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
@@ -9444,8 +9598,8 @@
       <c r="C619" t="s">
         <v>44</v>
       </c>
-      <c r="D619">
-        <v>1181203</v>
+      <c r="D619" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
@@ -9458,8 +9612,8 @@
       <c r="C620" t="s">
         <v>44</v>
       </c>
-      <c r="D620">
-        <v>1181203</v>
+      <c r="D620" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
@@ -9472,8 +9626,8 @@
       <c r="C621" t="s">
         <v>44</v>
       </c>
-      <c r="D621">
-        <v>1181203</v>
+      <c r="D621" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
@@ -9481,13 +9635,13 @@
         <v>117060105</v>
       </c>
       <c r="B622" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C622" t="s">
-        <v>89</v>
-      </c>
-      <c r="D622">
-        <v>1170601</v>
+        <v>87</v>
+      </c>
+      <c r="D622" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
@@ -9495,13 +9649,13 @@
         <v>117060106</v>
       </c>
       <c r="B623" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C623" t="s">
-        <v>89</v>
-      </c>
-      <c r="D623">
-        <v>1170601</v>
+        <v>87</v>
+      </c>
+      <c r="D623" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
@@ -9509,13 +9663,13 @@
         <v>117030601</v>
       </c>
       <c r="B624" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C624" t="s">
         <v>13</v>
       </c>
-      <c r="D624">
-        <v>1170306</v>
+      <c r="D624" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.2">
@@ -9523,13 +9677,13 @@
         <v>117030602</v>
       </c>
       <c r="B625" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C625" t="s">
         <v>13</v>
       </c>
-      <c r="D625">
-        <v>1170306</v>
+      <c r="D625" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
@@ -9537,13 +9691,13 @@
         <v>116030701</v>
       </c>
       <c r="B626" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C626" t="s">
         <v>7</v>
       </c>
-      <c r="D626">
-        <v>1160307</v>
+      <c r="D626" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.2">
@@ -9551,13 +9705,13 @@
         <v>116030702</v>
       </c>
       <c r="B627" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C627" t="s">
         <v>7</v>
       </c>
-      <c r="D627">
-        <v>1160307</v>
+      <c r="D627" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.2">
@@ -9565,13 +9719,13 @@
         <v>116030703</v>
       </c>
       <c r="B628" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C628" t="s">
         <v>7</v>
       </c>
-      <c r="D628">
-        <v>1160307</v>
+      <c r="D628" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.2">
@@ -9579,13 +9733,13 @@
         <v>116030704</v>
       </c>
       <c r="B629" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C629" t="s">
         <v>7</v>
       </c>
-      <c r="D629">
-        <v>1160307</v>
+      <c r="D629" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.2">
@@ -9598,8 +9752,8 @@
       <c r="C630" t="s">
         <v>8</v>
       </c>
-      <c r="D630">
-        <v>1160309</v>
+      <c r="D630" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.2">
@@ -9612,8 +9766,8 @@
       <c r="C631" t="s">
         <v>8</v>
       </c>
-      <c r="D631">
-        <v>1160309</v>
+      <c r="D631" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.2">
@@ -9626,8 +9780,8 @@
       <c r="C632" t="s">
         <v>5</v>
       </c>
-      <c r="D632">
-        <v>1160301</v>
+      <c r="D632" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
@@ -9640,8 +9794,8 @@
       <c r="C633" t="s">
         <v>5</v>
       </c>
-      <c r="D633">
-        <v>1160301</v>
+      <c r="D633" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
@@ -9654,8 +9808,8 @@
       <c r="C634" t="s">
         <v>13</v>
       </c>
-      <c r="D634">
-        <v>1160306</v>
+      <c r="D634" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.2">
@@ -9668,8 +9822,8 @@
       <c r="C635" t="s">
         <v>13</v>
       </c>
-      <c r="D635">
-        <v>1160306</v>
+      <c r="D635" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.2">
@@ -9682,8 +9836,8 @@
       <c r="C636" t="s">
         <v>7</v>
       </c>
-      <c r="D636">
-        <v>1160307</v>
+      <c r="D636" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.2">
@@ -9696,8 +9850,8 @@
       <c r="C637" t="s">
         <v>7</v>
       </c>
-      <c r="D637">
-        <v>1160307</v>
+      <c r="D637" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.2">
@@ -9710,8 +9864,8 @@
       <c r="C638" t="s">
         <v>7</v>
       </c>
-      <c r="D638">
-        <v>1160307</v>
+      <c r="D638" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.2">
@@ -9724,12 +9878,13 @@
       <c r="C639" t="s">
         <v>7</v>
       </c>
-      <c r="D639">
-        <v>1160307</v>
+      <c r="D639" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>